--- a/SCBAA/2017/Region 11.xlsx
+++ b/SCBAA/2017/Region 11.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBA\Done XLSX - 2017\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mngx\thesis\SCBAA\2017\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5F7E26F-6066-4429-AE64-BD37FB045578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50382B35-ADDF-4F43-A9DC-DF0C520B27CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9405" yWindow="1485" windowWidth="14625" windowHeight="12540" xr2:uid="{641E3F3D-B62C-49BB-8B36-010FD8E8E03F}"/>
+    <workbookView xWindow="12570" yWindow="345" windowWidth="14880" windowHeight="7260" xr2:uid="{641E3F3D-B62C-49BB-8B36-010FD8E8E03F}"/>
   </bookViews>
   <sheets>
     <sheet name="Davao" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,13 @@
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -573,7 +580,7 @@
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -590,14 +597,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -616,18 +621,15 @@
     <xf numFmtId="4" fontId="13" fillId="0" borderId="3" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="39" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="39" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="4" fontId="15" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="12" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -637,8 +639,6 @@
     <xf numFmtId="4" fontId="13" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="20" fillId="0" borderId="2" xfId="5" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -673,35 +673,11 @@
     <xf numFmtId="4" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="40" fontId="22" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="40" fontId="22" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="23" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="22" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -753,6 +729,40 @@
     </xf>
     <xf numFmtId="4" fontId="25" fillId="0" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="40" fontId="22" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="40" fontId="22" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="23" fillId="0" borderId="0" xfId="6" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="6" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="22" fillId="0" borderId="5" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="14" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="11">
@@ -1080,8 +1090,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8491BDA-B1F9-4531-B44C-E20A51610888}">
   <dimension ref="A1:I112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,109 +1103,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="69" t="s">
         <v>64</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
-      <c r="I1" s="45"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="70" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="46"/>
-      <c r="C2" s="46"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="46"/>
-      <c r="F2" s="46"/>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
+      <c r="B2" s="70"/>
+      <c r="C2" s="70"/>
+      <c r="D2" s="70"/>
+      <c r="E2" s="70"/>
+      <c r="F2" s="70"/>
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="69" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
-      <c r="G3" s="45"/>
-      <c r="H3" s="45"/>
-      <c r="I3" s="45"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="45"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45"/>
-      <c r="F4" s="45"/>
-      <c r="G4" s="45"/>
-      <c r="H4" s="45"/>
-      <c r="I4" s="45"/>
+      <c r="A4" s="69"/>
+      <c r="B4" s="69"/>
+      <c r="C4" s="69"/>
+      <c r="D4" s="69"/>
+      <c r="E4" s="69"/>
+      <c r="F4" s="69"/>
+      <c r="G4" s="69"/>
+      <c r="H4" s="69"/>
+      <c r="I4" s="69"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="36"/>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="39"/>
+      <c r="A5" s="29"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="29"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="69" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="47" t="s">
+      <c r="B6" s="69"/>
+      <c r="C6" s="69"/>
+      <c r="D6" s="69"/>
+      <c r="E6" s="71" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="45"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="48"/>
+      <c r="A7" s="69"/>
+      <c r="B7" s="69"/>
+      <c r="C7" s="69"/>
+      <c r="D7" s="69"/>
+      <c r="E7" s="72"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="36"/>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="37"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="29"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="36"/>
-      <c r="B9" s="36" t="s">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="36"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="37"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="36"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="36" t="s">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="36"/>
+      <c r="D10" s="29"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
@@ -1204,7 +1214,9 @@
       <c r="D11" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
@@ -1213,7 +1225,9 @@
       <c r="D12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="77">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
@@ -1222,7 +1236,9 @@
       <c r="D13" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="77">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
@@ -1231,7 +1247,7 @@
         <v>53</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="30">
+      <c r="E14" s="25">
         <f>SUM(E11:E13)</f>
         <v>0</v>
       </c>
@@ -1243,7 +1259,7 @@
         <v>52</v>
       </c>
       <c r="D15" s="8"/>
-      <c r="E15" s="35"/>
+      <c r="E15" s="28"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
@@ -1252,7 +1268,9 @@
       <c r="D16" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="E16" s="77">
+        <v>0</v>
+      </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
@@ -1261,16 +1279,20 @@
       <c r="D17" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" s="77">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="8"/>
-      <c r="C18" s="34"/>
+      <c r="C18" s="27"/>
       <c r="D18" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="13"/>
+      <c r="E18" s="77">
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
@@ -1279,8 +1301,8 @@
         <v>48</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="30">
-        <f>SUM(E16:E18)</f>
+      <c r="E19" s="25">
+        <f t="shared" ref="E19" si="0">SUM(E16:E18)</f>
         <v>0</v>
       </c>
     </row>
@@ -1300,7 +1322,9 @@
         <v>46</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="7"/>
+      <c r="E21" s="77">
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
@@ -1309,7 +1333,9 @@
         <v>45</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="7"/>
+      <c r="E22" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
@@ -1318,7 +1344,7 @@
         <v>44</v>
       </c>
       <c r="D23" s="8"/>
-      <c r="E23" s="17"/>
+      <c r="E23" s="78"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
@@ -1327,7 +1353,9 @@
       <c r="D24" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="32"/>
+      <c r="E24" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
@@ -1336,7 +1364,9 @@
       <c r="D25" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="16"/>
+      <c r="E25" s="77">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
@@ -1345,7 +1375,9 @@
       <c r="D26" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="13"/>
+      <c r="E26" s="77">
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
@@ -1354,7 +1386,9 @@
       <c r="D27" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="32"/>
+      <c r="E27" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
@@ -1363,7 +1397,7 @@
         <v>39</v>
       </c>
       <c r="D28" s="8"/>
-      <c r="E28" s="33"/>
+      <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
@@ -1372,7 +1406,9 @@
       <c r="D29" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="7"/>
+      <c r="E29" s="77">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
@@ -1381,7 +1417,9 @@
       <c r="D30" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="32"/>
+      <c r="E30" s="79">
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
@@ -1390,7 +1428,9 @@
         <v>36</v>
       </c>
       <c r="D31" s="8"/>
-      <c r="E31" s="31"/>
+      <c r="E31" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
@@ -1408,7 +1448,9 @@
       <c r="D33" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="10"/>
+      <c r="E33" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
@@ -1417,7 +1459,9 @@
       <c r="D34" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="E34" s="7"/>
+      <c r="E34" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
@@ -1426,7 +1470,9 @@
       <c r="D35" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="11"/>
+      <c r="E35" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
@@ -1435,7 +1481,9 @@
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="8"/>
-      <c r="E36" s="31"/>
+      <c r="E36" s="28">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
@@ -1444,7 +1492,7 @@
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="30">
+      <c r="E37" s="25">
         <f>SUM(E14,E19,E21:E36)</f>
         <v>0</v>
       </c>
@@ -1454,7 +1502,7 @@
       <c r="B38" s="5"/>
       <c r="C38" s="8"/>
       <c r="D38" s="8"/>
-      <c r="E38" s="29"/>
+      <c r="E38" s="80"/>
     </row>
     <row r="39" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A39" s="5" t="s">
@@ -1463,7 +1511,7 @@
       <c r="B39" s="5"/>
       <c r="C39" s="8"/>
       <c r="D39" s="8"/>
-      <c r="E39" s="16"/>
+      <c r="E39" s="14"/>
     </row>
     <row r="40" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A40" s="5" t="s">
@@ -1472,7 +1520,7 @@
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
-      <c r="E40" s="16"/>
+      <c r="E40" s="14"/>
     </row>
     <row r="41" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
@@ -1490,7 +1538,9 @@
       <c r="D42" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="7"/>
+      <c r="E42" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="43" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
@@ -1499,7 +1549,9 @@
       <c r="D43" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="7"/>
+      <c r="E43" s="10">
+        <v>0</v>
+      </c>
       <c r="F43" s="7"/>
     </row>
     <row r="44" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1509,7 +1561,9 @@
       <c r="D44" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E44" s="7"/>
+      <c r="E44" s="10">
+        <v>0</v>
+      </c>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
     </row>
@@ -1520,16 +1574,18 @@
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="8"/>
-      <c r="E45" s="9"/>
+      <c r="E45" s="10"/>
     </row>
     <row r="46" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="8"/>
-      <c r="C46" s="12"/>
+      <c r="C46" s="11"/>
       <c r="D46" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="7"/>
+      <c r="E46" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="47" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
@@ -1538,7 +1594,9 @@
       <c r="D47" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="7"/>
+      <c r="E47" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="48" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
@@ -1547,7 +1605,9 @@
       <c r="D48" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="7"/>
+      <c r="E48" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
@@ -1556,16 +1616,18 @@
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="11"/>
+      <c r="E49" s="10"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="28"/>
-      <c r="B50" s="28"/>
-      <c r="C50" s="28"/>
+      <c r="A50" s="23"/>
+      <c r="B50" s="23"/>
+      <c r="C50" s="23"/>
       <c r="D50" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="7"/>
+      <c r="E50" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
@@ -1574,7 +1636,9 @@
       <c r="D51" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="7"/>
+      <c r="E51" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
@@ -1583,7 +1647,9 @@
       <c r="D52" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E52" s="7"/>
+      <c r="E52" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
@@ -1592,7 +1658,7 @@
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="8"/>
-      <c r="E53" s="11"/>
+      <c r="E53" s="10"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
@@ -1601,7 +1667,9 @@
       <c r="D54" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="7"/>
+      <c r="E54" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
@@ -1610,16 +1678,20 @@
       <c r="D55" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="13"/>
+      <c r="E55" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="8"/>
-      <c r="C56" s="12"/>
+      <c r="C56" s="11"/>
       <c r="D56" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E56" s="20"/>
+      <c r="E56" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
@@ -1628,7 +1700,7 @@
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="8"/>
-      <c r="E57" s="26"/>
+      <c r="E57" s="9"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
@@ -1637,7 +1709,9 @@
       <c r="D58" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="10"/>
+      <c r="E58" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
@@ -1646,7 +1720,9 @@
       <c r="D59" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="27"/>
+      <c r="E59" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
@@ -1655,7 +1731,9 @@
       <c r="D60" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E60" s="10"/>
+      <c r="E60" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
@@ -1664,7 +1742,7 @@
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="8"/>
-      <c r="E61" s="26"/>
+      <c r="E61" s="22"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
@@ -1673,7 +1751,9 @@
       <c r="D62" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="7"/>
+      <c r="E62" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
@@ -1682,7 +1762,9 @@
       <c r="D63" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="7"/>
+      <c r="E63" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
@@ -1691,7 +1773,9 @@
       <c r="D64" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E64" s="7"/>
+      <c r="E64" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
@@ -1700,7 +1784,7 @@
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="8"/>
-      <c r="E65" s="11"/>
+      <c r="E65" s="10"/>
     </row>
     <row r="66" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
@@ -1709,7 +1793,9 @@
       <c r="D66" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="7"/>
+      <c r="E66" s="10">
+        <v>0</v>
+      </c>
       <c r="G66" s="7"/>
     </row>
     <row r="67" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1719,7 +1805,9 @@
       <c r="D67" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="7"/>
+      <c r="E67" s="10">
+        <v>0</v>
+      </c>
       <c r="G67" s="7"/>
     </row>
     <row r="68" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1729,7 +1817,9 @@
       <c r="D68" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E68" s="7"/>
+      <c r="E68" s="10">
+        <v>0</v>
+      </c>
       <c r="G68" s="7"/>
     </row>
     <row r="69" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
@@ -1748,7 +1838,9 @@
       <c r="D70" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="E70" s="16"/>
+      <c r="E70" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
@@ -1757,7 +1849,9 @@
       <c r="D71" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E71" s="16"/>
+      <c r="E71" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="72" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
@@ -1766,7 +1860,9 @@
       <c r="D72" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E72" s="25"/>
+      <c r="E72" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="73" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
@@ -1784,7 +1880,7 @@
         <v>23</v>
       </c>
       <c r="D74" s="8"/>
-      <c r="E74" s="16"/>
+      <c r="E74" s="14"/>
     </row>
     <row r="75" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
@@ -1793,7 +1889,9 @@
       <c r="D75" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="13"/>
+      <c r="E75" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
@@ -1802,16 +1900,18 @@
       <c r="D76" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E76" s="24"/>
+      <c r="E76" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="8"/>
-      <c r="C77" s="18" t="s">
+      <c r="C77" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D77" s="8"/>
-      <c r="E77" s="16"/>
+      <c r="E77" s="79"/>
     </row>
     <row r="78" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
@@ -1820,8 +1920,10 @@
       <c r="D78" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="7"/>
-      <c r="F78" s="22"/>
+      <c r="E78" s="10">
+        <v>0</v>
+      </c>
+      <c r="F78" s="19"/>
     </row>
     <row r="79" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
@@ -1830,7 +1932,9 @@
       <c r="D79" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="13"/>
+      <c r="E79" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
@@ -1839,27 +1943,31 @@
         <v>19</v>
       </c>
       <c r="D80" s="8"/>
-      <c r="E80" s="17"/>
+      <c r="E80" s="78"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
-      <c r="D81" s="18" t="s">
+      <c r="D81" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E81" s="7"/>
-      <c r="F81" s="23"/>
+      <c r="E81" s="10">
+        <v>0</v>
+      </c>
+      <c r="F81" s="20"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
-      <c r="D82" s="18" t="s">
+      <c r="D82" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="E82" s="7"/>
-      <c r="F82" s="22"/>
+      <c r="E82" s="10">
+        <v>0</v>
+      </c>
+      <c r="F82" s="19"/>
     </row>
     <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
@@ -1868,6 +1976,7 @@
         <v>18</v>
       </c>
       <c r="D83" s="8"/>
+      <c r="E83" s="14"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
@@ -1876,7 +1985,9 @@
       <c r="D84" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="21"/>
+      <c r="E84" s="80">
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
@@ -1885,7 +1996,9 @@
       <c r="D85" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="21"/>
+      <c r="E85" s="80">
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
@@ -1894,7 +2007,7 @@
         <v>17</v>
       </c>
       <c r="D86" s="8"/>
-      <c r="E86" s="16"/>
+      <c r="E86" s="14"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
@@ -1903,7 +2016,9 @@
       <c r="D87" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="7"/>
+      <c r="E87" s="80">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
@@ -1912,7 +2027,9 @@
       <c r="D88" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E88" s="7"/>
+      <c r="E88" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
@@ -1921,7 +2038,7 @@
         <v>16</v>
       </c>
       <c r="D89" s="8"/>
-      <c r="E89" s="16"/>
+      <c r="E89" s="14"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
@@ -1930,7 +2047,9 @@
       <c r="D90" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="E90" s="7"/>
+      <c r="E90" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
@@ -1939,7 +2058,9 @@
       <c r="D91" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="7"/>
+      <c r="E91" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
@@ -1948,14 +2069,16 @@
       <c r="D92" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="20"/>
+      <c r="E92" s="14">
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A93" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D93" s="8"/>
-      <c r="E93" s="19">
+      <c r="E93" s="17">
         <f>SUM(E41:E92)</f>
         <v>0</v>
       </c>
@@ -1966,8 +2089,8 @@
       </c>
       <c r="B94" s="8"/>
       <c r="C94" s="5"/>
-      <c r="D94" s="18"/>
-      <c r="E94" s="16"/>
+      <c r="D94" s="16"/>
+      <c r="E94" s="14"/>
     </row>
     <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
@@ -1976,9 +2099,9 @@
       </c>
       <c r="C95" s="8"/>
       <c r="D95" s="8"/>
-      <c r="E95" s="17"/>
-      <c r="H95" s="15"/>
-      <c r="I95" s="14"/>
+      <c r="E95" s="15"/>
+      <c r="H95" s="13"/>
+      <c r="I95" s="12"/>
     </row>
     <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
@@ -1987,10 +2110,12 @@
       <c r="D96" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E96" s="7"/>
-      <c r="F96" s="15"/>
+      <c r="E96" s="10">
+        <v>0</v>
+      </c>
+      <c r="F96" s="13"/>
       <c r="G96" s="8"/>
-      <c r="I96" s="14"/>
+      <c r="I96" s="12"/>
     </row>
     <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
@@ -1999,11 +2124,11 @@
       </c>
       <c r="C97" s="8"/>
       <c r="D97" s="8"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="15"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="13"/>
       <c r="G97" s="8"/>
-      <c r="H97" s="15"/>
-      <c r="I97" s="14"/>
+      <c r="H97" s="13"/>
+      <c r="I97" s="12"/>
     </row>
     <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B98" s="8"/>
@@ -2011,7 +2136,9 @@
       <c r="D98" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E98" s="13"/>
+      <c r="E98" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B99" s="5" t="s">
@@ -2027,7 +2154,9 @@
       <c r="D100" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E100" s="7"/>
+      <c r="E100" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B101" s="5" t="s">
@@ -2039,11 +2168,13 @@
     </row>
     <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B102" s="8"/>
-      <c r="C102" s="12"/>
+      <c r="C102" s="11"/>
       <c r="D102" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E102" s="11"/>
+      <c r="E102" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B103" s="5" t="s">
@@ -2059,7 +2190,9 @@
       <c r="D104" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E104" s="10"/>
+      <c r="E104" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B105" s="5" t="s">
@@ -2067,6 +2200,7 @@
       </c>
       <c r="C105" s="8"/>
       <c r="D105" s="8"/>
+      <c r="E105" s="9"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B106" s="8"/>
@@ -2074,7 +2208,9 @@
       <c r="D106" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E106" s="9"/>
+      <c r="E106" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B107" s="5" t="s">
@@ -2090,7 +2226,9 @@
       <c r="D108" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E108" s="7"/>
+      <c r="E108" s="10">
+        <v>0</v>
+      </c>
     </row>
     <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A109" s="5"/>
@@ -2107,14 +2245,19 @@
       <c r="D110" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="E110" s="7"/>
+      <c r="E110" s="10">
+        <v>0</v>
+      </c>
       <c r="F110" s="6"/>
     </row>
     <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A111" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E111" s="4"/>
+      <c r="E111" s="4">
+        <f>SUM(E95:E110)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="3" t="s">
@@ -2159,307 +2302,307 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="53" t="s">
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="75" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="54"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="76"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="56"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="41"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="56"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="41"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="51"/>
+      <c r="D10" s="38"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="57">
+      <c r="E11" s="42">
         <v>17157175.899999999</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="57">
+      <c r="E12" s="42">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="57">
+      <c r="E13" s="42">
         <v>84486227.930000007</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51" t="s">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="30">
+      <c r="D14" s="38"/>
+      <c r="E14" s="25">
         <f>SUM(E11:E13)</f>
         <v>101643403.83000001</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="35"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="28"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51" t="s">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="57">
+      <c r="E16" s="42">
         <v>70718275.549999997</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51" t="s">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="57">
+      <c r="E17" s="42">
         <v>8984376.2799999993</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="51" t="s">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="59">
+      <c r="E18" s="44">
         <v>22334170.149999999</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51" t="s">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="30">
+      <c r="D19" s="38"/>
+      <c r="E19" s="25">
         <f>SUM(E16:E18)</f>
         <v>102036821.97999999</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51" t="s">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51" t="s">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="51"/>
-      <c r="E21" s="57">
+      <c r="D21" s="38"/>
+      <c r="E21" s="42">
         <v>627439698</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51" t="s">
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="51"/>
-      <c r="E22" s="57">
+      <c r="D22" s="38"/>
+      <c r="E22" s="42">
         <v>348551.84</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51" t="s">
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="51"/>
-      <c r="E23" s="17"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51" t="s">
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="60">
+      <c r="E24" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51" t="s">
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51" t="s">
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="57">
+      <c r="E26" s="42">
         <v>2340</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51" t="s">
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="60">
+      <c r="E27" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51" t="s">
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="51"/>
-      <c r="E28" s="33"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51" t="s">
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="7">
@@ -2467,52 +2610,52 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51" t="s">
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="60">
+      <c r="E30" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51" t="s">
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="61">
+      <c r="D31" s="38"/>
+      <c r="E31" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="51"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51" t="s">
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="51"/>
+      <c r="D32" s="38"/>
       <c r="E32" s="9"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51" t="s">
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="62">
+      <c r="E33" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="51"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51" t="s">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38" t="s">
         <v>33</v>
       </c>
       <c r="E34" s="7">
@@ -2520,120 +2663,120 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="51"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51" t="s">
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="51"/>
-      <c r="B36" s="51" t="s">
+      <c r="A36" s="38"/>
+      <c r="B36" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="61">
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="51"/>
-      <c r="B37" s="55" t="s">
+      <c r="A37" s="38"/>
+      <c r="B37" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="30">
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="25">
         <f>SUM(E14,E19,E21:E36)</f>
         <v>831470815.64999998</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="51"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="29"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="24"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="55" t="s">
+      <c r="A39" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="55"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="16"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="14"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="55" t="s">
+      <c r="A40" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="16"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="14"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="51"/>
-      <c r="B41" s="55" t="s">
+      <c r="A41" s="38"/>
+      <c r="B41" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
       <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="51"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51" t="s">
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="63">
+      <c r="E42" s="48">
         <v>97521043.439999998</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="51"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51" t="s">
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="63">
+      <c r="E43" s="48">
         <v>60288666.850000001</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="51"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" s="63">
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="48">
         <v>5281587.6399999997</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="51"/>
-      <c r="B45" s="55" t="s">
+      <c r="A45" s="38"/>
+      <c r="B45" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
       <c r="E45" s="9"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="51"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="51" t="s">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="38" t="s">
         <v>26</v>
       </c>
       <c r="E46" s="7">
@@ -2641,10 +2784,10 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="51"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51" t="s">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38" t="s">
         <v>25</v>
       </c>
       <c r="E47" s="7">
@@ -2652,10 +2795,10 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="51"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51" t="s">
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38" t="s">
         <v>2</v>
       </c>
       <c r="E48" s="7">
@@ -2663,61 +2806,61 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="51"/>
-      <c r="B49" s="55" t="s">
+      <c r="A49" s="38"/>
+      <c r="B49" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="11"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="10"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="65"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="51" t="s">
+      <c r="A50" s="50"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="63">
+      <c r="E50" s="48">
         <v>15188485.970000001</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="51"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51" t="s">
+      <c r="A51" s="38"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="63">
+      <c r="E51" s="48">
         <v>1588048.57</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="51"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E52" s="63">
+      <c r="A52" s="38"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="48">
         <v>145050</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="51"/>
-      <c r="B53" s="55" t="s">
+      <c r="A53" s="38"/>
+      <c r="B53" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="11"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="10"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="51"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51" t="s">
+      <c r="A54" s="38"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38" t="s">
         <v>26</v>
       </c>
       <c r="E54" s="7">
@@ -2725,342 +2868,342 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="51"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51" t="s">
+      <c r="A55" s="38"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="66">
+      <c r="E55" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="51"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" s="67">
+      <c r="A56" s="38"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="51"/>
-      <c r="B57" s="55" t="s">
+      <c r="A57" s="38"/>
+      <c r="B57" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="26"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="22"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="51"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51" t="s">
+      <c r="A58" s="38"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="62">
+      <c r="E58" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="51"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51" t="s">
+      <c r="A59" s="38"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="68">
+      <c r="E59" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="51"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E60" s="62">
+      <c r="A60" s="38"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="51"/>
-      <c r="B61" s="55" t="s">
+      <c r="A61" s="38"/>
+      <c r="B61" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="26"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="22"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="51"/>
-      <c r="B62" s="51"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51" t="s">
+      <c r="A62" s="38"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="63">
+      <c r="E62" s="48">
         <v>13027119.039999999</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="51"/>
-      <c r="B63" s="55"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51" t="s">
+      <c r="A63" s="38"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="63">
+      <c r="E63" s="48">
         <v>7611053.6500000004</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="51"/>
-      <c r="B64" s="51"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E64" s="63">
+      <c r="A64" s="38"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="48">
         <v>453059.07</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="51"/>
-      <c r="B65" s="55" t="s">
+      <c r="A65" s="38"/>
+      <c r="B65" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="11"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="10"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="51"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51" t="s">
+      <c r="A66" s="38"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="63">
+      <c r="E66" s="48">
         <v>9864475.5800000001</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="51"/>
-      <c r="B67" s="51"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51" t="s">
+      <c r="A67" s="38"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="63">
+      <c r="E67" s="48">
         <v>50609534.240000002</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="51"/>
-      <c r="B68" s="51"/>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E68" s="63">
+      <c r="A68" s="38"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="48">
         <v>1317724.92</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="51"/>
-      <c r="B69" s="55" t="s">
+      <c r="A69" s="38"/>
+      <c r="B69" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
       <c r="E69" s="9"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="51"/>
-      <c r="B70" s="51"/>
-      <c r="C70" s="51"/>
-      <c r="D70" s="51" t="s">
+      <c r="A70" s="38"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E70" s="16">
+      <c r="E70" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="51"/>
-      <c r="B71" s="51"/>
-      <c r="C71" s="51"/>
-      <c r="D71" s="51" t="s">
+      <c r="A71" s="38"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E71" s="16">
+      <c r="E71" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="51"/>
-      <c r="B72" s="51"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E72" s="25">
+      <c r="A72" s="38"/>
+      <c r="B72" s="38"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="51"/>
-      <c r="B73" s="55" t="s">
+      <c r="A73" s="38"/>
+      <c r="B73" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="51"/>
-      <c r="D73" s="51"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="38"/>
       <c r="E73" s="9"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="51"/>
-      <c r="B74" s="51"/>
-      <c r="C74" s="51" t="s">
+      <c r="A74" s="38"/>
+      <c r="B74" s="38"/>
+      <c r="C74" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="51"/>
-      <c r="E74" s="16"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="14"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="51"/>
-      <c r="B75" s="51"/>
-      <c r="C75" s="51"/>
-      <c r="D75" s="51" t="s">
+      <c r="A75" s="38"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="66">
+      <c r="E75" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="51"/>
-      <c r="B76" s="51"/>
-      <c r="C76" s="51"/>
-      <c r="D76" s="51" t="s">
+      <c r="A76" s="38"/>
+      <c r="B76" s="38"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="E76" s="69">
+      <c r="E76" s="54">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="51"/>
-      <c r="B77" s="51"/>
-      <c r="C77" s="70" t="s">
+      <c r="A77" s="38"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="51"/>
-      <c r="E77" s="16"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="14"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="51"/>
-      <c r="B78" s="51"/>
-      <c r="C78" s="51"/>
-      <c r="D78" s="51" t="s">
+      <c r="A78" s="38"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="57">
+      <c r="E78" s="42">
         <v>24697762.399999999</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="51"/>
-      <c r="B79" s="51"/>
-      <c r="C79" s="51"/>
-      <c r="D79" s="51" t="s">
+      <c r="A79" s="38"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="57">
+      <c r="E79" s="42">
         <v>14000000</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="51"/>
-      <c r="B80" s="51"/>
-      <c r="C80" s="51" t="s">
+      <c r="A80" s="38"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="51"/>
-      <c r="E80" s="17"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="15"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="51"/>
-      <c r="B81" s="51"/>
-      <c r="C81" s="51"/>
-      <c r="D81" s="70" t="s">
+      <c r="A81" s="38"/>
+      <c r="B81" s="38"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="E81" s="57">
+      <c r="E81" s="42">
         <v>17244065</v>
       </c>
-      <c r="F81" s="71"/>
+      <c r="F81" s="56"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="51"/>
-      <c r="B82" s="51"/>
-      <c r="C82" s="51"/>
-      <c r="D82" s="70" t="s">
+      <c r="A82" s="38"/>
+      <c r="B82" s="38"/>
+      <c r="C82" s="38"/>
+      <c r="D82" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="E82" s="57">
+      <c r="E82" s="42">
         <v>2757470.91</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="51"/>
-      <c r="B83" s="51"/>
-      <c r="C83" s="51" t="s">
+      <c r="A83" s="38"/>
+      <c r="B83" s="38"/>
+      <c r="C83" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D83" s="51"/>
+      <c r="D83" s="38"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="51"/>
-      <c r="B84" s="51"/>
-      <c r="C84" s="51"/>
-      <c r="D84" s="51" t="s">
+      <c r="A84" s="38"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="21">
+      <c r="E84" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="51"/>
-      <c r="B85" s="51"/>
-      <c r="C85" s="51"/>
-      <c r="D85" s="51" t="s">
+      <c r="A85" s="38"/>
+      <c r="B85" s="38"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="21">
+      <c r="E85" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="51"/>
-      <c r="B86" s="51"/>
-      <c r="C86" s="51" t="s">
+      <c r="A86" s="38"/>
+      <c r="B86" s="38"/>
+      <c r="C86" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D86" s="51"/>
-      <c r="E86" s="16"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="14"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="51"/>
-      <c r="B87" s="51"/>
-      <c r="C87" s="51"/>
-      <c r="D87" s="51" t="s">
+      <c r="A87" s="38"/>
+      <c r="B87" s="38"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="38" t="s">
         <v>14</v>
       </c>
       <c r="E87" s="7">
@@ -3068,10 +3211,10 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="51"/>
-      <c r="B88" s="51"/>
-      <c r="C88" s="51"/>
-      <c r="D88" s="51" t="s">
+      <c r="A88" s="38"/>
+      <c r="B88" s="38"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="38" t="s">
         <v>13</v>
       </c>
       <c r="E88" s="7">
@@ -3079,126 +3222,126 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="51"/>
-      <c r="B89" s="51"/>
-      <c r="C89" s="51" t="s">
+      <c r="A89" s="38"/>
+      <c r="B89" s="38"/>
+      <c r="C89" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="51"/>
-      <c r="E89" s="16"/>
+      <c r="D89" s="38"/>
+      <c r="E89" s="14"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="51"/>
-      <c r="B90" s="51"/>
-      <c r="C90" s="51"/>
-      <c r="D90" s="51" t="s">
+      <c r="A90" s="38"/>
+      <c r="B90" s="38"/>
+      <c r="C90" s="38"/>
+      <c r="D90" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E90" s="57">
+      <c r="E90" s="42">
         <v>3310130.58</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="51"/>
-      <c r="B91" s="51"/>
-      <c r="C91" s="51"/>
-      <c r="D91" s="51" t="s">
+      <c r="A91" s="38"/>
+      <c r="B91" s="38"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="57">
+      <c r="E91" s="42">
         <v>326633038.16000003</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="51"/>
-      <c r="B92" s="51"/>
-      <c r="C92" s="51"/>
-      <c r="D92" s="51" t="s">
+      <c r="A92" s="38"/>
+      <c r="B92" s="38"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="72">
+      <c r="E92" s="57">
         <v>1154049</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="55" t="s">
+      <c r="A93" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D93" s="51"/>
-      <c r="E93" s="19">
+      <c r="D93" s="38"/>
+      <c r="E93" s="17">
         <f>SUM(E41:E92)</f>
         <v>652692365.01999998</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="55" t="s">
+      <c r="A94" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B94" s="51"/>
-      <c r="C94" s="55"/>
-      <c r="D94" s="70"/>
-      <c r="E94" s="16"/>
+      <c r="B94" s="38"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="55"/>
+      <c r="E94" s="14"/>
     </row>
     <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="51"/>
-      <c r="B95" s="55" t="s">
+      <c r="A95" s="38"/>
+      <c r="B95" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="51"/>
-      <c r="D95" s="51"/>
-      <c r="E95" s="17"/>
-      <c r="H95" s="73"/>
-      <c r="I95" s="56"/>
+      <c r="C95" s="38"/>
+      <c r="D95" s="38"/>
+      <c r="E95" s="15"/>
+      <c r="H95" s="58"/>
+      <c r="I95" s="41"/>
     </row>
     <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="51"/>
-      <c r="B96" s="51"/>
-      <c r="C96" s="51"/>
-      <c r="D96" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E96" s="63">
+      <c r="A96" s="38"/>
+      <c r="B96" s="38"/>
+      <c r="C96" s="38"/>
+      <c r="D96" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" s="48">
         <v>125730</v>
       </c>
-      <c r="F96" s="73"/>
-      <c r="G96" s="51"/>
-      <c r="I96" s="56"/>
+      <c r="F96" s="58"/>
+      <c r="G96" s="38"/>
+      <c r="I96" s="41"/>
     </row>
     <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="51"/>
-      <c r="B97" s="55" t="s">
+      <c r="A97" s="38"/>
+      <c r="B97" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C97" s="51"/>
-      <c r="D97" s="51"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="73"/>
-      <c r="G97" s="51"/>
-      <c r="H97" s="73"/>
-      <c r="I97" s="56"/>
+      <c r="C97" s="38"/>
+      <c r="D97" s="38"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="58"/>
+      <c r="G97" s="38"/>
+      <c r="H97" s="58"/>
+      <c r="I97" s="41"/>
     </row>
     <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B98" s="51"/>
-      <c r="C98" s="51"/>
-      <c r="D98" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E98" s="66">
+      <c r="B98" s="38"/>
+      <c r="C98" s="38"/>
+      <c r="D98" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="55" t="s">
+      <c r="B99" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="51"/>
-      <c r="D99" s="51"/>
+      <c r="C99" s="38"/>
+      <c r="D99" s="38"/>
       <c r="E99" s="9"/>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="51"/>
-      <c r="C100" s="51"/>
-      <c r="D100" s="51" t="s">
+      <c r="B100" s="38"/>
+      <c r="C100" s="38"/>
+      <c r="D100" s="38" t="s">
         <v>2</v>
       </c>
       <c r="E100" s="7">
@@ -3206,52 +3349,52 @@
       </c>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="55" t="s">
+      <c r="B101" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="51"/>
-      <c r="D101" s="51"/>
+      <c r="C101" s="38"/>
+      <c r="D101" s="38"/>
       <c r="E101" s="9"/>
     </row>
     <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B102" s="51"/>
-      <c r="C102" s="64"/>
-      <c r="D102" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E102" s="11">
+      <c r="B102" s="38"/>
+      <c r="C102" s="49"/>
+      <c r="D102" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E102" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B103" s="55" t="s">
+      <c r="B103" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C103" s="51"/>
-      <c r="D103" s="51"/>
+      <c r="C103" s="38"/>
+      <c r="D103" s="38"/>
       <c r="E103" s="9"/>
     </row>
     <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B104" s="51"/>
-      <c r="C104" s="51"/>
-      <c r="D104" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E104" s="62">
+      <c r="B104" s="38"/>
+      <c r="C104" s="38"/>
+      <c r="D104" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B105" s="55" t="s">
+      <c r="B105" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C105" s="51"/>
-      <c r="D105" s="51"/>
+      <c r="C105" s="38"/>
+      <c r="D105" s="38"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" s="51"/>
-      <c r="C106" s="51"/>
-      <c r="D106" s="51" t="s">
+      <c r="B106" s="38"/>
+      <c r="C106" s="38"/>
+      <c r="D106" s="38" t="s">
         <v>2</v>
       </c>
       <c r="E106" s="9">
@@ -3259,17 +3402,17 @@
       </c>
     </row>
     <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="55" t="s">
+      <c r="B107" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C107" s="51"/>
-      <c r="D107" s="51"/>
+      <c r="C107" s="38"/>
+      <c r="D107" s="38"/>
       <c r="E107" s="9"/>
     </row>
     <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="51"/>
-      <c r="C108" s="51"/>
-      <c r="D108" s="51" t="s">
+      <c r="B108" s="38"/>
+      <c r="C108" s="38"/>
+      <c r="D108" s="38" t="s">
         <v>2</v>
       </c>
       <c r="E108" s="7">
@@ -3277,27 +3420,27 @@
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="55"/>
-      <c r="B109" s="55" t="s">
+      <c r="A109" s="40"/>
+      <c r="B109" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C109" s="51"/>
-      <c r="D109" s="51"/>
+      <c r="C109" s="38"/>
+      <c r="D109" s="38"/>
       <c r="E109" s="9"/>
     </row>
     <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B110" s="51"/>
-      <c r="C110" s="51"/>
-      <c r="D110" s="51" t="s">
+      <c r="B110" s="38"/>
+      <c r="C110" s="38"/>
+      <c r="D110" s="38" t="s">
         <v>2</v>
       </c>
       <c r="E110" s="7">
         <v>0</v>
       </c>
-      <c r="F110" s="74"/>
+      <c r="F110" s="59"/>
     </row>
     <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="55" t="s">
+      <c r="A111" s="40" t="s">
         <v>1</v>
       </c>
       <c r="E111" s="4">
@@ -3306,12 +3449,12 @@
       </c>
     </row>
     <row r="112" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112" s="76"/>
-      <c r="C112" s="76"/>
-      <c r="D112" s="76"/>
+      <c r="A112" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="61"/>
+      <c r="C112" s="61"/>
+      <c r="D112" s="61"/>
       <c r="E112" s="1">
         <f>SUM(E93,E111)</f>
         <v>652818095.01999998</v>
@@ -3348,360 +3491,360 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="73" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="53" t="s">
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="75" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="54"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="76"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="56"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="41"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="56"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="41"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="51"/>
+      <c r="D10" s="38"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="81">
+      <c r="E11" s="66">
         <v>31612266.640000001</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="81">
+      <c r="E12" s="66">
         <v>24679046.760000002</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="82">
+      <c r="E13" s="67">
         <v>1818521.53</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51" t="s">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="30">
+      <c r="D14" s="38"/>
+      <c r="E14" s="25">
         <f>SUM(E11:E13)</f>
         <v>58109834.930000007</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="35"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="28"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51" t="s">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="81">
+      <c r="E16" s="66">
         <v>21104352.719999999</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51" t="s">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="81">
+      <c r="E17" s="66">
         <v>26757116.850000001</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="51" t="s">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="82">
+      <c r="E18" s="67">
         <v>756203.68</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51" t="s">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="30">
+      <c r="D19" s="38"/>
+      <c r="E19" s="25">
         <f>SUM(E16:E18)</f>
         <v>48617673.25</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51" t="s">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51" t="s">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="51"/>
-      <c r="E21" s="83">
+      <c r="D21" s="38"/>
+      <c r="E21" s="68">
         <v>549049580</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51" t="s">
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="51"/>
-      <c r="E22" s="81">
+      <c r="D22" s="38"/>
+      <c r="E22" s="66">
         <v>197259.95</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51" t="s">
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="51"/>
-      <c r="E23" s="17"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51" t="s">
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="60">
+      <c r="E24" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51" t="s">
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51" t="s">
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="66">
+      <c r="E26" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51" t="s">
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="60">
+      <c r="E27" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51" t="s">
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="51"/>
-      <c r="E28" s="33"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51" t="s">
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="81">
+      <c r="E29" s="66">
         <v>10020320.029999999</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51" t="s">
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="81">
+      <c r="E30" s="66">
         <v>766693.97</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51" t="s">
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="61">
+      <c r="D31" s="38"/>
+      <c r="E31" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="51"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51" t="s">
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="51"/>
+      <c r="D32" s="38"/>
       <c r="E32" s="9"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51" t="s">
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="62">
+      <c r="E33" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="51"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51" t="s">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38" t="s">
         <v>33</v>
       </c>
       <c r="E34" s="7">
@@ -3709,120 +3852,120 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="51"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51" t="s">
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="51"/>
-      <c r="B36" s="51" t="s">
+      <c r="A36" s="38"/>
+      <c r="B36" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="82">
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="67">
         <v>35950000</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="51"/>
-      <c r="B37" s="55" t="s">
+      <c r="A37" s="38"/>
+      <c r="B37" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="30">
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="25">
         <f>SUM(E14,E19,E21:E36)</f>
         <v>702711362.13000011</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="51"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="29"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="24"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="55" t="s">
+      <c r="A39" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="55"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="16"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="14"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="55" t="s">
+      <c r="A40" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="16"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="14"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="51"/>
-      <c r="B41" s="55" t="s">
+      <c r="A41" s="38"/>
+      <c r="B41" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
       <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="51"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51" t="s">
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="81">
+      <c r="E42" s="66">
         <v>141108565.69</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="51"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51" t="s">
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="81">
+      <c r="E43" s="66">
         <v>115042217.95999999</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="51"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" s="81">
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="66">
         <v>10872131.23</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="51"/>
-      <c r="B45" s="55" t="s">
+      <c r="A45" s="38"/>
+      <c r="B45" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
       <c r="E45" s="9"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="51"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="51" t="s">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="38" t="s">
         <v>26</v>
       </c>
       <c r="E46" s="7">
@@ -3830,10 +3973,10 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="51"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51" t="s">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38" t="s">
         <v>25</v>
       </c>
       <c r="E47" s="7">
@@ -3841,10 +3984,10 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="51"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51" t="s">
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38" t="s">
         <v>2</v>
       </c>
       <c r="E48" s="7">
@@ -3852,61 +3995,61 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="51"/>
-      <c r="B49" s="55" t="s">
+      <c r="A49" s="38"/>
+      <c r="B49" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="11"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="10"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="65"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="51" t="s">
+      <c r="A50" s="50"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="81">
+      <c r="E50" s="66">
         <v>35373827.119999997</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="51"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51" t="s">
+      <c r="A51" s="38"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="81">
+      <c r="E51" s="66">
         <v>15344750.65</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="51"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E52" s="81">
+      <c r="A52" s="38"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="66">
         <v>240132</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="51"/>
-      <c r="B53" s="55" t="s">
+      <c r="A53" s="38"/>
+      <c r="B53" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="11"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="10"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="51"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51" t="s">
+      <c r="A54" s="38"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38" t="s">
         <v>26</v>
       </c>
       <c r="E54" s="7">
@@ -3914,105 +4057,105 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="51"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51" t="s">
+      <c r="A55" s="38"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="66">
+      <c r="E55" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="51"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" s="67">
+      <c r="A56" s="38"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="51"/>
-      <c r="B57" s="55" t="s">
+      <c r="A57" s="38"/>
+      <c r="B57" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="26"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="22"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="51"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51" t="s">
+      <c r="A58" s="38"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="62">
+      <c r="E58" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="51"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51" t="s">
+      <c r="A59" s="38"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="68">
+      <c r="E59" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="51"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E60" s="62">
+      <c r="A60" s="38"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="51"/>
-      <c r="B61" s="55" t="s">
+      <c r="A61" s="38"/>
+      <c r="B61" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="26"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="22"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="51"/>
-      <c r="B62" s="51"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51" t="s">
+      <c r="A62" s="38"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="83">
+      <c r="E62" s="68">
         <v>7429691.4199999999</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="51"/>
-      <c r="B63" s="55"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51" t="s">
+      <c r="A63" s="38"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="83">
+      <c r="E63" s="68">
         <v>10271320.210000001</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="51"/>
-      <c r="B64" s="51"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51" t="s">
+      <c r="A64" s="38"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38" t="s">
         <v>2</v>
       </c>
       <c r="E64" s="7">
@@ -4020,236 +4163,236 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="51"/>
-      <c r="B65" s="55" t="s">
+      <c r="A65" s="38"/>
+      <c r="B65" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="11"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="10"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="51"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51" t="s">
+      <c r="A66" s="38"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="81">
+      <c r="E66" s="66">
         <v>51252869.340000004</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="51"/>
-      <c r="B67" s="51"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51" t="s">
+      <c r="A67" s="38"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="81">
+      <c r="E67" s="66">
         <v>42139135.93</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="51"/>
-      <c r="B68" s="51"/>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E68" s="81">
+      <c r="A68" s="38"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="66">
         <v>49978646.130000003</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="51"/>
-      <c r="B69" s="55" t="s">
+      <c r="A69" s="38"/>
+      <c r="B69" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
       <c r="E69" s="9"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="51"/>
-      <c r="B70" s="51"/>
-      <c r="C70" s="51"/>
-      <c r="D70" s="51" t="s">
+      <c r="A70" s="38"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E70" s="16">
+      <c r="E70" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="51"/>
-      <c r="B71" s="51"/>
-      <c r="C71" s="51"/>
-      <c r="D71" s="51" t="s">
+      <c r="A71" s="38"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E71" s="16">
+      <c r="E71" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="51"/>
-      <c r="B72" s="51"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E72" s="25">
+      <c r="A72" s="38"/>
+      <c r="B72" s="38"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="51"/>
-      <c r="B73" s="55" t="s">
+      <c r="A73" s="38"/>
+      <c r="B73" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="51"/>
-      <c r="D73" s="51"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="38"/>
       <c r="E73" s="9"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="51"/>
-      <c r="B74" s="51"/>
-      <c r="C74" s="51" t="s">
+      <c r="A74" s="38"/>
+      <c r="B74" s="38"/>
+      <c r="C74" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="51"/>
-      <c r="E74" s="16"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="14"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="51"/>
-      <c r="B75" s="51"/>
-      <c r="C75" s="51"/>
-      <c r="D75" s="51" t="s">
+      <c r="A75" s="38"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="66">
+      <c r="E75" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="51"/>
-      <c r="B76" s="51"/>
-      <c r="C76" s="51"/>
-      <c r="D76" s="51" t="s">
+      <c r="A76" s="38"/>
+      <c r="B76" s="38"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="E76" s="69">
+      <c r="E76" s="54">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="51"/>
-      <c r="B77" s="51"/>
-      <c r="C77" s="70" t="s">
+      <c r="A77" s="38"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="51"/>
-      <c r="E77" s="16"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="14"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="51"/>
-      <c r="B78" s="51"/>
-      <c r="C78" s="51"/>
-      <c r="D78" s="51" t="s">
+      <c r="A78" s="38"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="83">
+      <c r="E78" s="68">
         <v>8868569.7100000009</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="51"/>
-      <c r="B79" s="51"/>
-      <c r="C79" s="51"/>
-      <c r="D79" s="51" t="s">
+      <c r="A79" s="38"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="83">
+      <c r="E79" s="68">
         <v>845980</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="51"/>
-      <c r="B80" s="51"/>
-      <c r="C80" s="51" t="s">
+      <c r="A80" s="38"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="51"/>
-      <c r="E80" s="17"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="15"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="51"/>
-      <c r="B81" s="51"/>
-      <c r="C81" s="51"/>
-      <c r="D81" s="70" t="s">
+      <c r="A81" s="38"/>
+      <c r="B81" s="38"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="E81" s="83">
+      <c r="E81" s="68">
         <v>12643893.4</v>
       </c>
-      <c r="F81" s="71"/>
+      <c r="F81" s="56"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="51"/>
-      <c r="B82" s="51"/>
-      <c r="C82" s="51"/>
-      <c r="D82" s="70" t="s">
+      <c r="A82" s="38"/>
+      <c r="B82" s="38"/>
+      <c r="C82" s="38"/>
+      <c r="D82" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="E82" s="83">
+      <c r="E82" s="68">
         <v>65586510.25</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="51"/>
-      <c r="B83" s="51"/>
-      <c r="C83" s="51" t="s">
+      <c r="A83" s="38"/>
+      <c r="B83" s="38"/>
+      <c r="C83" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D83" s="51"/>
+      <c r="D83" s="38"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="51"/>
-      <c r="B84" s="51"/>
-      <c r="C84" s="51"/>
-      <c r="D84" s="51" t="s">
+      <c r="A84" s="38"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="21">
+      <c r="E84" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="51"/>
-      <c r="B85" s="51"/>
-      <c r="C85" s="51"/>
-      <c r="D85" s="51" t="s">
+      <c r="A85" s="38"/>
+      <c r="B85" s="38"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="21">
+      <c r="E85" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="51"/>
-      <c r="B86" s="51"/>
-      <c r="C86" s="51" t="s">
+      <c r="A86" s="38"/>
+      <c r="B86" s="38"/>
+      <c r="C86" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D86" s="51"/>
-      <c r="E86" s="16"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="14"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="51"/>
-      <c r="B87" s="51"/>
-      <c r="C87" s="51"/>
-      <c r="D87" s="51" t="s">
+      <c r="A87" s="38"/>
+      <c r="B87" s="38"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="38" t="s">
         <v>14</v>
       </c>
       <c r="E87" s="7">
@@ -4257,10 +4400,10 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="51"/>
-      <c r="B88" s="51"/>
-      <c r="C88" s="51"/>
-      <c r="D88" s="51" t="s">
+      <c r="A88" s="38"/>
+      <c r="B88" s="38"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="38" t="s">
         <v>13</v>
       </c>
       <c r="E88" s="7">
@@ -4268,19 +4411,19 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="51"/>
-      <c r="B89" s="51"/>
-      <c r="C89" s="51" t="s">
+      <c r="A89" s="38"/>
+      <c r="B89" s="38"/>
+      <c r="C89" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="51"/>
-      <c r="E89" s="16"/>
+      <c r="D89" s="38"/>
+      <c r="E89" s="14"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="51"/>
-      <c r="B90" s="51"/>
-      <c r="C90" s="51"/>
-      <c r="D90" s="51" t="s">
+      <c r="A90" s="38"/>
+      <c r="B90" s="38"/>
+      <c r="C90" s="38"/>
+      <c r="D90" s="38" t="s">
         <v>15</v>
       </c>
       <c r="E90" s="7">
@@ -4288,10 +4431,10 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="51"/>
-      <c r="B91" s="51"/>
-      <c r="C91" s="51"/>
-      <c r="D91" s="51" t="s">
+      <c r="A91" s="38"/>
+      <c r="B91" s="38"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="38" t="s">
         <v>14</v>
       </c>
       <c r="E91" s="7">
@@ -4299,194 +4442,194 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="51"/>
-      <c r="B92" s="51"/>
-      <c r="C92" s="51"/>
-      <c r="D92" s="51" t="s">
+      <c r="A92" s="38"/>
+      <c r="B92" s="38"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="67">
+      <c r="E92" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="55" t="s">
+      <c r="A93" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D93" s="51"/>
-      <c r="E93" s="19">
+      <c r="D93" s="38"/>
+      <c r="E93" s="17">
         <f>SUM(E41:E92)</f>
         <v>566998241.03999984</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="55" t="s">
+      <c r="A94" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B94" s="51"/>
-      <c r="C94" s="55"/>
-      <c r="D94" s="70"/>
-      <c r="E94" s="16"/>
+      <c r="B94" s="38"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="55"/>
+      <c r="E94" s="14"/>
     </row>
     <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="51"/>
-      <c r="B95" s="55" t="s">
+      <c r="A95" s="38"/>
+      <c r="B95" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="51"/>
-      <c r="D95" s="51"/>
-      <c r="E95" s="17"/>
-      <c r="H95" s="73"/>
-      <c r="I95" s="56"/>
+      <c r="C95" s="38"/>
+      <c r="D95" s="38"/>
+      <c r="E95" s="15"/>
+      <c r="H95" s="58"/>
+      <c r="I95" s="41"/>
     </row>
     <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="51"/>
-      <c r="B96" s="51"/>
-      <c r="C96" s="51"/>
-      <c r="D96" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E96" s="83">
+      <c r="A96" s="38"/>
+      <c r="B96" s="38"/>
+      <c r="C96" s="38"/>
+      <c r="D96" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" s="68">
         <v>7525800.5899999999</v>
       </c>
-      <c r="F96" s="73"/>
-      <c r="G96" s="51"/>
-      <c r="I96" s="56"/>
+      <c r="F96" s="58"/>
+      <c r="G96" s="38"/>
+      <c r="I96" s="41"/>
     </row>
     <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="51"/>
-      <c r="B97" s="55" t="s">
+      <c r="A97" s="38"/>
+      <c r="B97" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C97" s="51"/>
-      <c r="D97" s="51"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="73"/>
-      <c r="G97" s="51"/>
-      <c r="H97" s="73"/>
-      <c r="I97" s="56"/>
+      <c r="C97" s="38"/>
+      <c r="D97" s="38"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="58"/>
+      <c r="G97" s="38"/>
+      <c r="H97" s="58"/>
+      <c r="I97" s="41"/>
     </row>
     <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B98" s="51"/>
-      <c r="C98" s="51"/>
-      <c r="D98" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E98" s="83">
+      <c r="B98" s="38"/>
+      <c r="C98" s="38"/>
+      <c r="D98" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" s="68">
         <v>13701204.800000001</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="55" t="s">
+      <c r="B99" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="51"/>
-      <c r="D99" s="51"/>
+      <c r="C99" s="38"/>
+      <c r="D99" s="38"/>
       <c r="E99" s="9"/>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="51"/>
-      <c r="C100" s="51"/>
-      <c r="D100" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E100" s="83">
+      <c r="B100" s="38"/>
+      <c r="C100" s="38"/>
+      <c r="D100" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" s="68">
         <v>149000</v>
       </c>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="55" t="s">
+      <c r="B101" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="51"/>
-      <c r="D101" s="51"/>
+      <c r="C101" s="38"/>
+      <c r="D101" s="38"/>
       <c r="E101" s="9"/>
     </row>
     <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B102" s="51"/>
-      <c r="C102" s="64"/>
-      <c r="D102" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E102" s="11">
+      <c r="B102" s="38"/>
+      <c r="C102" s="49"/>
+      <c r="D102" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E102" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B103" s="55" t="s">
+      <c r="B103" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C103" s="51"/>
-      <c r="D103" s="51"/>
+      <c r="C103" s="38"/>
+      <c r="D103" s="38"/>
       <c r="E103" s="9"/>
     </row>
     <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B104" s="51"/>
-      <c r="C104" s="51"/>
-      <c r="D104" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E104" s="83">
+      <c r="B104" s="38"/>
+      <c r="C104" s="38"/>
+      <c r="D104" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" s="68">
         <v>7765606.9400000004</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B105" s="55" t="s">
+      <c r="B105" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C105" s="51"/>
-      <c r="D105" s="51"/>
+      <c r="C105" s="38"/>
+      <c r="D105" s="38"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" s="51"/>
-      <c r="C106" s="51"/>
-      <c r="D106" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E106" s="83">
+      <c r="B106" s="38"/>
+      <c r="C106" s="38"/>
+      <c r="D106" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E106" s="68">
         <v>2000</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="55" t="s">
+      <c r="B107" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C107" s="51"/>
-      <c r="D107" s="51"/>
+      <c r="C107" s="38"/>
+      <c r="D107" s="38"/>
       <c r="E107" s="9"/>
     </row>
     <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="51"/>
-      <c r="C108" s="51"/>
-      <c r="D108" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E108" s="83">
+      <c r="B108" s="38"/>
+      <c r="C108" s="38"/>
+      <c r="D108" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E108" s="68">
         <v>14437373.48</v>
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="55"/>
-      <c r="B109" s="55" t="s">
+      <c r="A109" s="40"/>
+      <c r="B109" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C109" s="51"/>
-      <c r="D109" s="51"/>
+      <c r="C109" s="38"/>
+      <c r="D109" s="38"/>
       <c r="E109" s="9"/>
     </row>
     <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B110" s="51"/>
-      <c r="C110" s="51"/>
-      <c r="D110" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E110" s="83">
+      <c r="B110" s="38"/>
+      <c r="C110" s="38"/>
+      <c r="D110" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E110" s="68">
         <v>27807689.5</v>
       </c>
-      <c r="F110" s="74"/>
+      <c r="F110" s="59"/>
     </row>
     <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="55" t="s">
+      <c r="A111" s="40" t="s">
         <v>1</v>
       </c>
       <c r="E111" s="4">
@@ -4495,12 +4638,12 @@
       </c>
     </row>
     <row r="112" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112" s="76"/>
-      <c r="C112" s="76"/>
-      <c r="D112" s="76"/>
+      <c r="A112" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="61"/>
+      <c r="C112" s="61"/>
+      <c r="D112" s="61"/>
       <c r="E112" s="1">
         <f>SUM(E93,E111)</f>
         <v>638386916.3499999</v>
@@ -4537,307 +4680,307 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="73" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="53" t="s">
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="75" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="54"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="76"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="56"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="41"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="56"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="41"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="51"/>
+      <c r="D10" s="38"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="78">
+      <c r="E11" s="63">
         <v>11892473.42</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="78">
+      <c r="E12" s="63">
         <v>30563782.170000002</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="78">
+      <c r="E13" s="63">
         <v>3508382.24</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51" t="s">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="30">
+      <c r="D14" s="38"/>
+      <c r="E14" s="25">
         <f>SUM(E11:E13)</f>
         <v>45964637.830000006</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="35"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="28"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51" t="s">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="78">
+      <c r="E16" s="63">
         <v>10269567.390000001</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51" t="s">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="78">
+      <c r="E17" s="63">
         <v>23150812.890000001</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="51" t="s">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="78">
+      <c r="E18" s="63">
         <v>990791.37</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51" t="s">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="30">
+      <c r="D19" s="38"/>
+      <c r="E19" s="25">
         <f>SUM(E16:E18)</f>
         <v>34411171.649999999</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51" t="s">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51" t="s">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="51"/>
-      <c r="E21" s="78">
+      <c r="D21" s="38"/>
+      <c r="E21" s="63">
         <v>844518760</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51" t="s">
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="51"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51" t="s">
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="51"/>
-      <c r="E23" s="17"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51" t="s">
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="78">
+      <c r="E24" s="63">
         <v>49020.09</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51" t="s">
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="79">
+      <c r="E25" s="64">
         <v>2198832.16</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51" t="s">
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="78">
+      <c r="E26" s="63">
         <v>54881.27</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51" t="s">
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="60">
+      <c r="E27" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51" t="s">
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="51"/>
-      <c r="E28" s="33"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51" t="s">
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="7">
@@ -4845,52 +4988,52 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51" t="s">
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="60">
+      <c r="E30" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51" t="s">
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="61">
+      <c r="D31" s="38"/>
+      <c r="E31" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="51"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51" t="s">
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="51"/>
+      <c r="D32" s="38"/>
       <c r="E32" s="9"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51" t="s">
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="62">
+      <c r="E33" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="51"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51" t="s">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38" t="s">
         <v>33</v>
       </c>
       <c r="E34" s="7">
@@ -4898,131 +5041,131 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="51"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51" t="s">
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="51"/>
-      <c r="B36" s="51" t="s">
+      <c r="A36" s="38"/>
+      <c r="B36" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="61">
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="51"/>
-      <c r="B37" s="55" t="s">
+      <c r="A37" s="38"/>
+      <c r="B37" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="30">
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="25">
         <f>SUM(E14,E19,E21:E36)</f>
         <v>927197303</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="51"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="29"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="24"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="55" t="s">
+      <c r="A39" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="55"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="16"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="14"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="55" t="s">
+      <c r="A40" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="16"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="14"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="51"/>
-      <c r="B41" s="55" t="s">
+      <c r="A41" s="38"/>
+      <c r="B41" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
       <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="51"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51" t="s">
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="80">
+      <c r="E42" s="65">
         <v>151490199.60000002</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="51"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51" t="s">
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="80">
+      <c r="E43" s="65">
         <v>427768726.20999998</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="51"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" s="78">
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="63">
         <v>32772746.780000001</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="51"/>
-      <c r="B45" s="55" t="s">
+      <c r="A45" s="38"/>
+      <c r="B45" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
       <c r="E45" s="9"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="51"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="51" t="s">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="80">
+      <c r="E46" s="65">
         <v>5371871.1200000001</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="51"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51" t="s">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38" t="s">
         <v>25</v>
       </c>
       <c r="E47" s="7">
@@ -5030,10 +5173,10 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="51"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51" t="s">
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38" t="s">
         <v>2</v>
       </c>
       <c r="E48" s="7">
@@ -5041,404 +5184,404 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="51"/>
-      <c r="B49" s="55" t="s">
+      <c r="A49" s="38"/>
+      <c r="B49" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="11"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="10"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="65"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="51" t="s">
+      <c r="A50" s="50"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="80">
+      <c r="E50" s="65">
         <v>26431304.059999999</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="51"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51" t="s">
+      <c r="A51" s="38"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="80">
+      <c r="E51" s="65">
         <v>7234651.5999999996</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="51"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E52" s="80">
+      <c r="A52" s="38"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="65">
         <v>264555</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="51"/>
-      <c r="B53" s="55" t="s">
+      <c r="A53" s="38"/>
+      <c r="B53" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="11"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="10"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="51"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51" t="s">
+      <c r="A54" s="38"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E54" s="80">
+      <c r="E54" s="65">
         <v>4712048.59</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="51"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51" t="s">
+      <c r="A55" s="38"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="80">
+      <c r="E55" s="65">
         <v>1847258.1800000002</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="51"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" s="80">
+      <c r="A56" s="38"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="65">
         <v>145000</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="51"/>
-      <c r="B57" s="55" t="s">
+      <c r="A57" s="38"/>
+      <c r="B57" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="26"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="22"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="51"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51" t="s">
+      <c r="A58" s="38"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="62">
+      <c r="E58" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="51"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51" t="s">
+      <c r="A59" s="38"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="80">
+      <c r="E59" s="65">
         <v>2433911.94</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="51"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E60" s="62">
+      <c r="A60" s="38"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="51"/>
-      <c r="B61" s="55" t="s">
+      <c r="A61" s="38"/>
+      <c r="B61" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="26"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="22"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="51"/>
-      <c r="B62" s="51"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51" t="s">
+      <c r="A62" s="38"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="80">
+      <c r="E62" s="65">
         <v>4579339.21</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="51"/>
-      <c r="B63" s="55"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51" t="s">
+      <c r="A63" s="38"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="80">
+      <c r="E63" s="65">
         <v>7596453.0999999996</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="51"/>
-      <c r="B64" s="51"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E64" s="80">
+      <c r="A64" s="38"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="65">
         <v>150000</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="51"/>
-      <c r="B65" s="55" t="s">
+      <c r="A65" s="38"/>
+      <c r="B65" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="11"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="10"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="51"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51" t="s">
+      <c r="A66" s="38"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="80">
+      <c r="E66" s="65">
         <v>10012689.360000001</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="51"/>
-      <c r="B67" s="51"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51" t="s">
+      <c r="A67" s="38"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="80">
+      <c r="E67" s="65">
         <v>2452525.61</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="51"/>
-      <c r="B68" s="51"/>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E68" s="80">
+      <c r="A68" s="38"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="65">
         <v>165360</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="51"/>
-      <c r="B69" s="55" t="s">
+      <c r="A69" s="38"/>
+      <c r="B69" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
       <c r="E69" s="9"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="51"/>
-      <c r="B70" s="51"/>
-      <c r="C70" s="51"/>
-      <c r="D70" s="51" t="s">
+      <c r="A70" s="38"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E70" s="16">
+      <c r="E70" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="51"/>
-      <c r="B71" s="51"/>
-      <c r="C71" s="51"/>
-      <c r="D71" s="51" t="s">
+      <c r="A71" s="38"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E71" s="16">
+      <c r="E71" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="51"/>
-      <c r="B72" s="51"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E72" s="25">
+      <c r="A72" s="38"/>
+      <c r="B72" s="38"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="51"/>
-      <c r="B73" s="55" t="s">
+      <c r="A73" s="38"/>
+      <c r="B73" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="51"/>
-      <c r="D73" s="51"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="38"/>
       <c r="E73" s="9"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="51"/>
-      <c r="B74" s="51"/>
-      <c r="C74" s="51" t="s">
+      <c r="A74" s="38"/>
+      <c r="B74" s="38"/>
+      <c r="C74" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="51"/>
-      <c r="E74" s="16"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="14"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="51"/>
-      <c r="B75" s="51"/>
-      <c r="C75" s="51"/>
-      <c r="D75" s="51" t="s">
+      <c r="A75" s="38"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="66">
+      <c r="E75" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="51"/>
-      <c r="B76" s="51"/>
-      <c r="C76" s="51"/>
-      <c r="D76" s="51" t="s">
+      <c r="A76" s="38"/>
+      <c r="B76" s="38"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="E76" s="69">
+      <c r="E76" s="54">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="51"/>
-      <c r="B77" s="51"/>
-      <c r="C77" s="70" t="s">
+      <c r="A77" s="38"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="51"/>
-      <c r="E77" s="16"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="14"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="51"/>
-      <c r="B78" s="51"/>
-      <c r="C78" s="51"/>
-      <c r="D78" s="51" t="s">
+      <c r="A78" s="38"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="80">
+      <c r="E78" s="65">
         <v>21925574.850000001</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="51"/>
-      <c r="B79" s="51"/>
-      <c r="C79" s="51"/>
-      <c r="D79" s="51" t="s">
+      <c r="A79" s="38"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="80">
+      <c r="E79" s="65">
         <v>5675047.4299999997</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="51"/>
-      <c r="B80" s="51"/>
-      <c r="C80" s="51" t="s">
+      <c r="A80" s="38"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="51"/>
-      <c r="E80" s="17"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="15"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="51"/>
-      <c r="B81" s="51"/>
-      <c r="C81" s="51"/>
-      <c r="D81" s="70" t="s">
+      <c r="A81" s="38"/>
+      <c r="B81" s="38"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="E81" s="43">
+      <c r="E81" s="36">
         <v>89329152.769999996</v>
       </c>
-      <c r="F81" s="71"/>
+      <c r="F81" s="56"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="51"/>
-      <c r="B82" s="51"/>
-      <c r="C82" s="51"/>
-      <c r="D82" s="70" t="s">
+      <c r="A82" s="38"/>
+      <c r="B82" s="38"/>
+      <c r="C82" s="38"/>
+      <c r="D82" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="E82" s="78">
+      <c r="E82" s="63">
         <v>49373357.380000003</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="51"/>
-      <c r="B83" s="51"/>
-      <c r="C83" s="51" t="s">
+      <c r="A83" s="38"/>
+      <c r="B83" s="38"/>
+      <c r="C83" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D83" s="51"/>
+      <c r="D83" s="38"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="51"/>
-      <c r="B84" s="51"/>
-      <c r="C84" s="51"/>
-      <c r="D84" s="51" t="s">
+      <c r="A84" s="38"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="21">
+      <c r="E84" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="51"/>
-      <c r="B85" s="51"/>
-      <c r="C85" s="51"/>
-      <c r="D85" s="51" t="s">
+      <c r="A85" s="38"/>
+      <c r="B85" s="38"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="21">
+      <c r="E85" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="51"/>
-      <c r="B86" s="51"/>
-      <c r="C86" s="51" t="s">
+      <c r="A86" s="38"/>
+      <c r="B86" s="38"/>
+      <c r="C86" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D86" s="51"/>
-      <c r="E86" s="16"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="14"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="51"/>
-      <c r="B87" s="51"/>
-      <c r="C87" s="51"/>
-      <c r="D87" s="51" t="s">
+      <c r="A87" s="38"/>
+      <c r="B87" s="38"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="38" t="s">
         <v>14</v>
       </c>
       <c r="E87" s="7">
@@ -5446,10 +5589,10 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="51"/>
-      <c r="B88" s="51"/>
-      <c r="C88" s="51"/>
-      <c r="D88" s="51" t="s">
+      <c r="A88" s="38"/>
+      <c r="B88" s="38"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="38" t="s">
         <v>13</v>
       </c>
       <c r="E88" s="7">
@@ -5457,30 +5600,30 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="51"/>
-      <c r="B89" s="51"/>
-      <c r="C89" s="51" t="s">
+      <c r="A89" s="38"/>
+      <c r="B89" s="38"/>
+      <c r="C89" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="51"/>
-      <c r="E89" s="16"/>
+      <c r="D89" s="38"/>
+      <c r="E89" s="14"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="51"/>
-      <c r="B90" s="51"/>
-      <c r="C90" s="51"/>
-      <c r="D90" s="51" t="s">
+      <c r="A90" s="38"/>
+      <c r="B90" s="38"/>
+      <c r="C90" s="38"/>
+      <c r="D90" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E90" s="80">
+      <c r="E90" s="65">
         <v>1028286.4</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="51"/>
-      <c r="B91" s="51"/>
-      <c r="C91" s="51"/>
-      <c r="D91" s="51" t="s">
+      <c r="A91" s="38"/>
+      <c r="B91" s="38"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="38" t="s">
         <v>14</v>
       </c>
       <c r="E91" s="7">
@@ -5488,95 +5631,95 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="51"/>
-      <c r="B92" s="51"/>
-      <c r="C92" s="51"/>
-      <c r="D92" s="51" t="s">
+      <c r="A92" s="38"/>
+      <c r="B92" s="38"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="67">
+      <c r="E92" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="55" t="s">
+      <c r="A93" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D93" s="51"/>
-      <c r="E93" s="19">
+      <c r="D93" s="38"/>
+      <c r="E93" s="17">
         <f>SUM(E41:E92)</f>
         <v>852760059.18999994</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="55" t="s">
+      <c r="A94" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B94" s="51"/>
-      <c r="C94" s="55"/>
-      <c r="D94" s="70"/>
-      <c r="E94" s="16"/>
+      <c r="B94" s="38"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="55"/>
+      <c r="E94" s="14"/>
     </row>
     <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="51"/>
-      <c r="B95" s="55" t="s">
+      <c r="A95" s="38"/>
+      <c r="B95" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="51"/>
-      <c r="D95" s="51"/>
-      <c r="E95" s="17"/>
-      <c r="H95" s="73"/>
-      <c r="I95" s="56"/>
+      <c r="C95" s="38"/>
+      <c r="D95" s="38"/>
+      <c r="E95" s="15"/>
+      <c r="H95" s="58"/>
+      <c r="I95" s="41"/>
     </row>
     <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="51"/>
-      <c r="B96" s="51"/>
-      <c r="C96" s="51"/>
-      <c r="D96" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E96" s="80">
+      <c r="A96" s="38"/>
+      <c r="B96" s="38"/>
+      <c r="C96" s="38"/>
+      <c r="D96" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" s="65">
         <v>352700</v>
       </c>
-      <c r="F96" s="73"/>
-      <c r="G96" s="51"/>
-      <c r="I96" s="56"/>
+      <c r="F96" s="58"/>
+      <c r="G96" s="38"/>
+      <c r="I96" s="41"/>
     </row>
     <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="51"/>
-      <c r="B97" s="55" t="s">
+      <c r="A97" s="38"/>
+      <c r="B97" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C97" s="51"/>
-      <c r="D97" s="51"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="73"/>
-      <c r="G97" s="51"/>
-      <c r="H97" s="73"/>
-      <c r="I97" s="56"/>
+      <c r="C97" s="38"/>
+      <c r="D97" s="38"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="58"/>
+      <c r="G97" s="38"/>
+      <c r="H97" s="58"/>
+      <c r="I97" s="41"/>
     </row>
     <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B98" s="51"/>
-      <c r="C98" s="51"/>
-      <c r="D98" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E98" s="66">
+      <c r="B98" s="38"/>
+      <c r="C98" s="38"/>
+      <c r="D98" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="55" t="s">
+      <c r="B99" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="51"/>
-      <c r="D99" s="51"/>
+      <c r="C99" s="38"/>
+      <c r="D99" s="38"/>
       <c r="E99" s="9"/>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="51"/>
-      <c r="C100" s="51"/>
-      <c r="D100" s="51" t="s">
+      <c r="B100" s="38"/>
+      <c r="C100" s="38"/>
+      <c r="D100" s="38" t="s">
         <v>2</v>
       </c>
       <c r="E100" s="7">
@@ -5584,70 +5727,70 @@
       </c>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="55" t="s">
+      <c r="B101" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="51"/>
-      <c r="D101" s="51"/>
+      <c r="C101" s="38"/>
+      <c r="D101" s="38"/>
       <c r="E101" s="9"/>
     </row>
     <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B102" s="51"/>
-      <c r="C102" s="64"/>
-      <c r="D102" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E102" s="11">
+      <c r="B102" s="38"/>
+      <c r="C102" s="49"/>
+      <c r="D102" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E102" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B103" s="55" t="s">
+      <c r="B103" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C103" s="51"/>
-      <c r="D103" s="51"/>
+      <c r="C103" s="38"/>
+      <c r="D103" s="38"/>
       <c r="E103" s="9"/>
     </row>
     <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B104" s="51"/>
-      <c r="C104" s="51"/>
-      <c r="D104" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E104" s="62">
+      <c r="B104" s="38"/>
+      <c r="C104" s="38"/>
+      <c r="D104" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B105" s="55" t="s">
+      <c r="B105" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C105" s="51"/>
-      <c r="D105" s="51"/>
+      <c r="C105" s="38"/>
+      <c r="D105" s="38"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" s="51"/>
-      <c r="C106" s="51"/>
-      <c r="D106" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E106" s="80">
+      <c r="B106" s="38"/>
+      <c r="C106" s="38"/>
+      <c r="D106" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E106" s="65">
         <v>4522746.13</v>
       </c>
     </row>
     <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="55" t="s">
+      <c r="B107" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C107" s="51"/>
-      <c r="D107" s="51"/>
+      <c r="C107" s="38"/>
+      <c r="D107" s="38"/>
       <c r="E107" s="9"/>
     </row>
     <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="51"/>
-      <c r="C108" s="51"/>
-      <c r="D108" s="51" t="s">
+      <c r="B108" s="38"/>
+      <c r="C108" s="38"/>
+      <c r="D108" s="38" t="s">
         <v>2</v>
       </c>
       <c r="E108" s="7">
@@ -5655,27 +5798,27 @@
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="55"/>
-      <c r="B109" s="55" t="s">
+      <c r="A109" s="40"/>
+      <c r="B109" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C109" s="51"/>
-      <c r="D109" s="51"/>
+      <c r="C109" s="38"/>
+      <c r="D109" s="38"/>
       <c r="E109" s="9"/>
     </row>
     <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B110" s="51"/>
-      <c r="C110" s="51"/>
-      <c r="D110" s="51" t="s">
+      <c r="B110" s="38"/>
+      <c r="C110" s="38"/>
+      <c r="D110" s="38" t="s">
         <v>2</v>
       </c>
       <c r="E110" s="7">
         <v>0</v>
       </c>
-      <c r="F110" s="74"/>
+      <c r="F110" s="59"/>
     </row>
     <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="55" t="s">
+      <c r="A111" s="40" t="s">
         <v>1</v>
       </c>
       <c r="E111" s="4">
@@ -5684,12 +5827,12 @@
       </c>
     </row>
     <row r="112" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112" s="76"/>
-      <c r="C112" s="76"/>
-      <c r="D112" s="76"/>
+      <c r="A112" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="61"/>
+      <c r="C112" s="61"/>
+      <c r="D112" s="61"/>
       <c r="E112" s="1">
         <f>SUM(E93,E111)</f>
         <v>857635505.31999993</v>
@@ -5726,307 +5869,307 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="73" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="53" t="s">
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="75" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="54"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="76"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="56"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="41"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="56"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="41"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="51"/>
+      <c r="D10" s="38"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38" t="s">
         <v>56</v>
       </c>
-      <c r="E11" s="77">
+      <c r="E11" s="62">
         <v>80120940.469999999</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="77">
+      <c r="E12" s="62">
         <v>109796175.84999999</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38" t="s">
         <v>54</v>
       </c>
-      <c r="E13" s="77">
+      <c r="E13" s="62">
         <v>11887788.26</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51" t="s">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="30">
+      <c r="D14" s="38"/>
+      <c r="E14" s="25">
         <f>SUM(E11:E13)</f>
         <v>201804904.57999998</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="35"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="28"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51" t="s">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="E16" s="77">
+      <c r="E16" s="62">
         <v>39345445.049999997</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51" t="s">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38" t="s">
         <v>50</v>
       </c>
-      <c r="E17" s="77">
+      <c r="E17" s="62">
         <v>68712789.420000002</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="51" t="s">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="77">
+      <c r="E18" s="62">
         <v>4659988.6399999997</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51" t="s">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="30">
+      <c r="D19" s="38"/>
+      <c r="E19" s="25">
         <f>SUM(E16:E18)</f>
         <v>112718223.11</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51" t="s">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51" t="s">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="51"/>
-      <c r="E21" s="77">
+      <c r="D21" s="38"/>
+      <c r="E21" s="62">
         <v>620981498</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51" t="s">
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="51"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51" t="s">
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="51"/>
-      <c r="E23" s="17"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51" t="s">
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="60">
+      <c r="E24" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51" t="s">
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51" t="s">
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="77">
+      <c r="E26" s="62">
         <v>421590.73</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51" t="s">
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="60">
+      <c r="E27" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51" t="s">
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="51"/>
-      <c r="E28" s="33"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51" t="s">
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="7">
@@ -6034,52 +6177,52 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51" t="s">
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="60">
+      <c r="E30" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51" t="s">
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="61">
+      <c r="D31" s="38"/>
+      <c r="E31" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="51"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51" t="s">
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="51"/>
+      <c r="D32" s="38"/>
       <c r="E32" s="9"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51" t="s">
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="62">
+      <c r="E33" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="51"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51" t="s">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38" t="s">
         <v>33</v>
       </c>
       <c r="E34" s="7">
@@ -6087,204 +6230,204 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="51"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51" t="s">
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="51"/>
-      <c r="B36" s="51" t="s">
+      <c r="A36" s="38"/>
+      <c r="B36" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="61">
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="51"/>
-      <c r="B37" s="55" t="s">
+      <c r="A37" s="38"/>
+      <c r="B37" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="30">
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="25">
         <f>SUM(E14,E19,E21:E36)</f>
         <v>935926216.42000008</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="51"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="29"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="24"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="55" t="s">
+      <c r="A39" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="55"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="16"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="14"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="55" t="s">
+      <c r="A40" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="16"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="14"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="51"/>
-      <c r="B41" s="55" t="s">
+      <c r="A41" s="38"/>
+      <c r="B41" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
       <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="51"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51" t="s">
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E42" s="77">
+      <c r="E42" s="62">
         <v>154173199.77000001</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="51"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51" t="s">
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E43" s="77">
+      <c r="E43" s="62">
         <v>102593367.70999999</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="51"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E44" s="77">
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E44" s="62">
         <v>9855139.1600000001</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="51"/>
-      <c r="B45" s="55" t="s">
+      <c r="A45" s="38"/>
+      <c r="B45" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
       <c r="E45" s="9"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="51"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="51" t="s">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E46" s="77">
+      <c r="E46" s="62">
         <v>3560204.32</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="51"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51" t="s">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E47" s="77">
+      <c r="E47" s="62">
         <v>10688888.869999999</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="51"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E48" s="77">
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E48" s="62">
         <v>28226674.91</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="51"/>
-      <c r="B49" s="55" t="s">
+      <c r="A49" s="38"/>
+      <c r="B49" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="11"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="10"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="65"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="51" t="s">
+      <c r="A50" s="50"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E50" s="44">
+      <c r="E50" s="37">
         <v>25777294.719999999</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="51"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51" t="s">
+      <c r="A51" s="38"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E51" s="44">
+      <c r="E51" s="37">
         <v>7158097.2999999998</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="51"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E52" s="44">
+      <c r="A52" s="38"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E52" s="37">
         <v>210455</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="51"/>
-      <c r="B53" s="55" t="s">
+      <c r="A53" s="38"/>
+      <c r="B53" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="11"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="10"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="51"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51" t="s">
+      <c r="A54" s="38"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38" t="s">
         <v>26</v>
       </c>
       <c r="E54" s="7">
@@ -6292,353 +6435,353 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="51"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51" t="s">
+      <c r="A55" s="38"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="66">
+      <c r="E55" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="51"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" s="67">
+      <c r="A56" s="38"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="51"/>
-      <c r="B57" s="55" t="s">
+      <c r="A57" s="38"/>
+      <c r="B57" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="26"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="22"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="51"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51" t="s">
+      <c r="A58" s="38"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="62">
+      <c r="E58" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="51"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51" t="s">
+      <c r="A59" s="38"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="68">
+      <c r="E59" s="53">
         <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="51"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E60" s="62">
+      <c r="A60" s="38"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="51"/>
-      <c r="B61" s="55" t="s">
+      <c r="A61" s="38"/>
+      <c r="B61" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="26"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="22"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="51"/>
-      <c r="B62" s="51"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51" t="s">
+      <c r="A62" s="38"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E62" s="77">
+      <c r="E62" s="62">
         <v>13202379.439999999</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="51"/>
-      <c r="B63" s="55"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51" t="s">
+      <c r="A63" s="38"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E63" s="77">
+      <c r="E63" s="62">
         <v>6969674.2999999998</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="51"/>
-      <c r="B64" s="51"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E64" s="77">
+      <c r="A64" s="38"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="62">
         <v>472976.2</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="51"/>
-      <c r="B65" s="55" t="s">
+      <c r="A65" s="38"/>
+      <c r="B65" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="11"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="10"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="51"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51" t="s">
+      <c r="A66" s="38"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E66" s="77">
+      <c r="E66" s="62">
         <v>45034314.740000002</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="51"/>
-      <c r="B67" s="51"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51" t="s">
+      <c r="A67" s="38"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E67" s="77">
+      <c r="E67" s="62">
         <v>103118494</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="51"/>
-      <c r="B68" s="51"/>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E68" s="77">
+      <c r="A68" s="38"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E68" s="62">
         <v>3337808.75</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="51"/>
-      <c r="B69" s="55" t="s">
+      <c r="A69" s="38"/>
+      <c r="B69" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
       <c r="E69" s="9"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="51"/>
-      <c r="B70" s="51"/>
-      <c r="C70" s="51"/>
-      <c r="D70" s="51" t="s">
+      <c r="A70" s="38"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E70" s="16">
+      <c r="E70" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="51"/>
-      <c r="B71" s="51"/>
-      <c r="C71" s="51"/>
-      <c r="D71" s="51" t="s">
+      <c r="A71" s="38"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E71" s="16">
+      <c r="E71" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="51"/>
-      <c r="B72" s="51"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E72" s="25">
+      <c r="A72" s="38"/>
+      <c r="B72" s="38"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="51"/>
-      <c r="B73" s="55" t="s">
+      <c r="A73" s="38"/>
+      <c r="B73" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="51"/>
-      <c r="D73" s="51"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="38"/>
       <c r="E73" s="9"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="51"/>
-      <c r="B74" s="51"/>
-      <c r="C74" s="51" t="s">
+      <c r="A74" s="38"/>
+      <c r="B74" s="38"/>
+      <c r="C74" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="51"/>
-      <c r="E74" s="16"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="14"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="51"/>
-      <c r="B75" s="51"/>
-      <c r="C75" s="51"/>
-      <c r="D75" s="51" t="s">
+      <c r="A75" s="38"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="77">
+      <c r="E75" s="62">
         <v>40161800.960000001</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="51"/>
-      <c r="B76" s="51"/>
-      <c r="C76" s="51"/>
-      <c r="D76" s="51" t="s">
+      <c r="A76" s="38"/>
+      <c r="B76" s="38"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="E76" s="69">
+      <c r="E76" s="54">
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="51"/>
-      <c r="B77" s="51"/>
-      <c r="C77" s="70" t="s">
+      <c r="A77" s="38"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="51"/>
-      <c r="E77" s="16"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="14"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="51"/>
-      <c r="B78" s="51"/>
-      <c r="C78" s="51"/>
-      <c r="D78" s="51" t="s">
+      <c r="A78" s="38"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E78" s="77">
+      <c r="E78" s="62">
         <v>895265.75</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="51"/>
-      <c r="B79" s="51"/>
-      <c r="C79" s="51"/>
-      <c r="D79" s="51" t="s">
+      <c r="A79" s="38"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="77">
+      <c r="E79" s="62">
         <v>6580310.7599999998</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="51"/>
-      <c r="B80" s="51"/>
-      <c r="C80" s="51" t="s">
+      <c r="A80" s="38"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="51"/>
-      <c r="E80" s="17"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="15"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="51"/>
-      <c r="B81" s="51"/>
-      <c r="C81" s="51"/>
-      <c r="D81" s="70" t="s">
+      <c r="A81" s="38"/>
+      <c r="B81" s="38"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="55" t="s">
         <v>14</v>
       </c>
-      <c r="E81" s="77">
+      <c r="E81" s="62">
         <v>7977552.2000000002</v>
       </c>
-      <c r="F81" s="71"/>
+      <c r="F81" s="56"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="51"/>
-      <c r="B82" s="51"/>
-      <c r="C82" s="51"/>
-      <c r="D82" s="70" t="s">
+      <c r="A82" s="38"/>
+      <c r="B82" s="38"/>
+      <c r="C82" s="38"/>
+      <c r="D82" s="55" t="s">
         <v>13</v>
       </c>
-      <c r="E82" s="77">
+      <c r="E82" s="62">
         <v>80275007.930000007</v>
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="51"/>
-      <c r="B83" s="51"/>
-      <c r="C83" s="51" t="s">
+      <c r="A83" s="38"/>
+      <c r="B83" s="38"/>
+      <c r="C83" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D83" s="51"/>
+      <c r="D83" s="38"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="51"/>
-      <c r="B84" s="51"/>
-      <c r="C84" s="51"/>
-      <c r="D84" s="51" t="s">
+      <c r="A84" s="38"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="21">
+      <c r="E84" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="51"/>
-      <c r="B85" s="51"/>
-      <c r="C85" s="51"/>
-      <c r="D85" s="51" t="s">
+      <c r="A85" s="38"/>
+      <c r="B85" s="38"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="21">
+      <c r="E85" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="51"/>
-      <c r="B86" s="51"/>
-      <c r="C86" s="51" t="s">
+      <c r="A86" s="38"/>
+      <c r="B86" s="38"/>
+      <c r="C86" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D86" s="51"/>
-      <c r="E86" s="16"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="14"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="51"/>
-      <c r="B87" s="51"/>
-      <c r="C87" s="51"/>
-      <c r="D87" s="51" t="s">
+      <c r="A87" s="38"/>
+      <c r="B87" s="38"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E87" s="77">
+      <c r="E87" s="62">
         <v>3168500</v>
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="51"/>
-      <c r="B88" s="51"/>
-      <c r="C88" s="51"/>
-      <c r="D88" s="51" t="s">
+      <c r="A88" s="38"/>
+      <c r="B88" s="38"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="38" t="s">
         <v>13</v>
       </c>
       <c r="E88" s="7">
@@ -6646,126 +6789,126 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="51"/>
-      <c r="B89" s="51"/>
-      <c r="C89" s="51" t="s">
+      <c r="A89" s="38"/>
+      <c r="B89" s="38"/>
+      <c r="C89" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="51"/>
-      <c r="E89" s="16"/>
+      <c r="D89" s="38"/>
+      <c r="E89" s="14"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="51"/>
-      <c r="B90" s="51"/>
-      <c r="C90" s="51"/>
-      <c r="D90" s="51" t="s">
+      <c r="A90" s="38"/>
+      <c r="B90" s="38"/>
+      <c r="C90" s="38"/>
+      <c r="D90" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E90" s="77">
+      <c r="E90" s="62">
         <v>2396000</v>
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="51"/>
-      <c r="B91" s="51"/>
-      <c r="C91" s="51"/>
-      <c r="D91" s="51" t="s">
+      <c r="A91" s="38"/>
+      <c r="B91" s="38"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E91" s="77">
+      <c r="E91" s="62">
         <v>19553133.199999999</v>
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="51"/>
-      <c r="B92" s="51"/>
-      <c r="C92" s="51"/>
-      <c r="D92" s="51" t="s">
+      <c r="A92" s="38"/>
+      <c r="B92" s="38"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="77">
+      <c r="E92" s="62">
         <v>547024.30000000005</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="55" t="s">
+      <c r="A93" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D93" s="51"/>
-      <c r="E93" s="19">
+      <c r="D93" s="38"/>
+      <c r="E93" s="17">
         <f>SUM(E41:E92)</f>
         <v>675933564.2900002</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="55" t="s">
+      <c r="A94" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B94" s="51"/>
-      <c r="C94" s="55"/>
-      <c r="D94" s="70"/>
-      <c r="E94" s="16"/>
+      <c r="B94" s="38"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="55"/>
+      <c r="E94" s="14"/>
     </row>
     <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="51"/>
-      <c r="B95" s="55" t="s">
+      <c r="A95" s="38"/>
+      <c r="B95" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="51"/>
-      <c r="D95" s="51"/>
-      <c r="E95" s="17"/>
-      <c r="H95" s="73"/>
-      <c r="I95" s="56"/>
+      <c r="C95" s="38"/>
+      <c r="D95" s="38"/>
+      <c r="E95" s="15"/>
+      <c r="H95" s="58"/>
+      <c r="I95" s="41"/>
     </row>
     <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="51"/>
-      <c r="B96" s="51"/>
-      <c r="C96" s="51"/>
-      <c r="D96" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E96" s="77">
+      <c r="A96" s="38"/>
+      <c r="B96" s="38"/>
+      <c r="C96" s="38"/>
+      <c r="D96" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E96" s="62">
         <v>16781495.140000001</v>
       </c>
-      <c r="F96" s="73"/>
-      <c r="G96" s="51"/>
-      <c r="I96" s="56"/>
+      <c r="F96" s="58"/>
+      <c r="G96" s="38"/>
+      <c r="I96" s="41"/>
     </row>
     <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="51"/>
-      <c r="B97" s="55" t="s">
+      <c r="A97" s="38"/>
+      <c r="B97" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C97" s="51"/>
-      <c r="D97" s="51"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="73"/>
-      <c r="G97" s="51"/>
-      <c r="H97" s="73"/>
-      <c r="I97" s="56"/>
+      <c r="C97" s="38"/>
+      <c r="D97" s="38"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="58"/>
+      <c r="G97" s="38"/>
+      <c r="H97" s="58"/>
+      <c r="I97" s="41"/>
     </row>
     <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B98" s="51"/>
-      <c r="C98" s="51"/>
-      <c r="D98" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E98" s="77">
+      <c r="B98" s="38"/>
+      <c r="C98" s="38"/>
+      <c r="D98" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" s="62">
         <v>24292628.379999999</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="55" t="s">
+      <c r="B99" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="51"/>
-      <c r="D99" s="51"/>
+      <c r="C99" s="38"/>
+      <c r="D99" s="38"/>
       <c r="E99" s="9"/>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="51"/>
-      <c r="C100" s="51"/>
-      <c r="D100" s="51" t="s">
+      <c r="B100" s="38"/>
+      <c r="C100" s="38"/>
+      <c r="D100" s="38" t="s">
         <v>2</v>
       </c>
       <c r="E100" s="7">
@@ -6773,52 +6916,52 @@
       </c>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="55" t="s">
+      <c r="B101" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="51"/>
-      <c r="D101" s="51"/>
+      <c r="C101" s="38"/>
+      <c r="D101" s="38"/>
       <c r="E101" s="9"/>
     </row>
     <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B102" s="51"/>
-      <c r="C102" s="64"/>
-      <c r="D102" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E102" s="11">
+      <c r="B102" s="38"/>
+      <c r="C102" s="49"/>
+      <c r="D102" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E102" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B103" s="55" t="s">
+      <c r="B103" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C103" s="51"/>
-      <c r="D103" s="51"/>
+      <c r="C103" s="38"/>
+      <c r="D103" s="38"/>
       <c r="E103" s="9"/>
     </row>
     <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B104" s="51"/>
-      <c r="C104" s="51"/>
-      <c r="D104" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E104" s="62">
+      <c r="B104" s="38"/>
+      <c r="C104" s="38"/>
+      <c r="D104" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B105" s="55" t="s">
+      <c r="B105" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C105" s="51"/>
-      <c r="D105" s="51"/>
+      <c r="C105" s="38"/>
+      <c r="D105" s="38"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" s="51"/>
-      <c r="C106" s="51"/>
-      <c r="D106" s="51" t="s">
+      <c r="B106" s="38"/>
+      <c r="C106" s="38"/>
+      <c r="D106" s="38" t="s">
         <v>2</v>
       </c>
       <c r="E106" s="9">
@@ -6826,17 +6969,17 @@
       </c>
     </row>
     <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="55" t="s">
+      <c r="B107" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C107" s="51"/>
-      <c r="D107" s="51"/>
+      <c r="C107" s="38"/>
+      <c r="D107" s="38"/>
       <c r="E107" s="9"/>
     </row>
     <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="51"/>
-      <c r="C108" s="51"/>
-      <c r="D108" s="51" t="s">
+      <c r="B108" s="38"/>
+      <c r="C108" s="38"/>
+      <c r="D108" s="38" t="s">
         <v>2</v>
       </c>
       <c r="E108" s="7">
@@ -6844,27 +6987,27 @@
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="55"/>
-      <c r="B109" s="55" t="s">
+      <c r="A109" s="40"/>
+      <c r="B109" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C109" s="51"/>
-      <c r="D109" s="51"/>
+      <c r="C109" s="38"/>
+      <c r="D109" s="38"/>
       <c r="E109" s="9"/>
     </row>
     <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B110" s="51"/>
-      <c r="C110" s="51"/>
-      <c r="D110" s="51" t="s">
+      <c r="B110" s="38"/>
+      <c r="C110" s="38"/>
+      <c r="D110" s="38" t="s">
         <v>2</v>
       </c>
       <c r="E110" s="7">
         <v>0</v>
       </c>
-      <c r="F110" s="74"/>
+      <c r="F110" s="59"/>
     </row>
     <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="55" t="s">
+      <c r="A111" s="40" t="s">
         <v>1</v>
       </c>
       <c r="E111" s="4">
@@ -6873,12 +7016,12 @@
       </c>
     </row>
     <row r="112" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112" s="76"/>
-      <c r="C112" s="76"/>
-      <c r="D112" s="76"/>
+      <c r="A112" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="61"/>
+      <c r="C112" s="61"/>
+      <c r="D112" s="61"/>
       <c r="E112" s="1">
         <f>SUM(E93,E111)</f>
         <v>717007687.81000018</v>
@@ -6915,115 +7058,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="49" t="s">
+      <c r="A1" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="50" t="s">
+      <c r="A2" s="74" t="s">
         <v>63</v>
       </c>
-      <c r="B2" s="50"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="50"/>
-      <c r="H2" s="50"/>
-      <c r="I2" s="50"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
-      <c r="D3" s="49"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="49"/>
-      <c r="G3" s="49"/>
-      <c r="H3" s="49"/>
-      <c r="I3" s="49"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="49"/>
-      <c r="C4" s="49"/>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
+      <c r="A4" s="73"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
     </row>
     <row r="5" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="52"/>
-      <c r="F5" s="52"/>
-      <c r="G5" s="52"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="32"/>
+      <c r="I5" s="32"/>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="49" t="s">
+      <c r="A6" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="49"/>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="53" t="s">
+      <c r="B6" s="73"/>
+      <c r="C6" s="73"/>
+      <c r="D6" s="73"/>
+      <c r="E6" s="75" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="49"/>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="54"/>
+      <c r="A7" s="73"/>
+      <c r="B7" s="73"/>
+      <c r="C7" s="73"/>
+      <c r="D7" s="73"/>
+      <c r="E7" s="76"/>
     </row>
     <row r="8" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
+      <c r="A8" s="40" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="56"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="41"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="56"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="41"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
+      <c r="C10" s="38" t="s">
         <v>57</v>
       </c>
-      <c r="D10" s="51"/>
+      <c r="D10" s="38"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38" t="s">
         <v>56</v>
       </c>
       <c r="E11" s="7">
@@ -7031,10 +7174,10 @@
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38" t="s">
         <v>55</v>
       </c>
       <c r="E12" s="7">
@@ -7042,10 +7185,10 @@
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38" t="s">
         <v>54</v>
       </c>
       <c r="E13" s="7">
@@ -7053,31 +7196,31 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51" t="s">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
+      <c r="C14" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="D14" s="51"/>
-      <c r="E14" s="30">
+      <c r="D14" s="38"/>
+      <c r="E14" s="25">
         <f>SUM(E11:E13)</f>
         <v>336019661.97000003</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="51"/>
-      <c r="E15" s="35"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="28"/>
     </row>
     <row r="16" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51" t="s">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38" t="s">
         <v>51</v>
       </c>
       <c r="E16" s="7">
@@ -7085,10 +7228,10 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51" t="s">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38" t="s">
         <v>50</v>
       </c>
       <c r="E17" s="7">
@@ -7096,126 +7239,126 @@
       </c>
     </row>
     <row r="18" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="51"/>
-      <c r="B18" s="51"/>
-      <c r="C18" s="58"/>
-      <c r="D18" s="51" t="s">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="E18" s="66">
+      <c r="E18" s="51">
         <v>5082121.75</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="51"/>
-      <c r="B19" s="51"/>
-      <c r="C19" s="51" t="s">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38" t="s">
         <v>48</v>
       </c>
-      <c r="D19" s="51"/>
-      <c r="E19" s="30">
+      <c r="D19" s="38"/>
+      <c r="E19" s="25">
         <f>SUM(E16:E18)</f>
         <v>261251038.22</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="51"/>
-      <c r="B20" s="51" t="s">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="51"/>
-      <c r="D20" s="51"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
       <c r="E20" s="9"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="51"/>
-      <c r="B21" s="51"/>
-      <c r="C21" s="51" t="s">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="D21" s="51"/>
+      <c r="D21" s="38"/>
       <c r="E21" s="7">
         <v>683183245</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="51"/>
-      <c r="B22" s="51"/>
-      <c r="C22" s="51" t="s">
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="51"/>
+      <c r="D22" s="38"/>
       <c r="E22" s="7">
         <v>853982.44</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="51"/>
-      <c r="B23" s="51"/>
-      <c r="C23" s="51" t="s">
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="51"/>
-      <c r="E23" s="17"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="15"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="51"/>
-      <c r="B24" s="51"/>
-      <c r="C24" s="51"/>
-      <c r="D24" s="51" t="s">
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="E24" s="60">
+      <c r="E24" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A25" s="51"/>
-      <c r="B25" s="51"/>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51" t="s">
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="16">
+      <c r="E25" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="51"/>
-      <c r="B26" s="51"/>
-      <c r="C26" s="51"/>
-      <c r="D26" s="51" t="s">
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38" t="s">
         <v>41</v>
       </c>
-      <c r="E26" s="66">
+      <c r="E26" s="51">
         <v>2928250.55</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="51"/>
-      <c r="B27" s="51"/>
-      <c r="C27" s="51"/>
-      <c r="D27" s="51" t="s">
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38" t="s">
         <v>40</v>
       </c>
-      <c r="E27" s="60">
+      <c r="E27" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="51"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51" t="s">
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="51"/>
-      <c r="E28" s="33"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="26"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="51"/>
-      <c r="B29" s="51"/>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51" t="s">
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38" t="s">
         <v>38</v>
       </c>
       <c r="E29" s="7">
@@ -7223,52 +7366,52 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="51"/>
-      <c r="B30" s="51"/>
-      <c r="C30" s="51"/>
-      <c r="D30" s="51" t="s">
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="60">
+      <c r="E30" s="45">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="51"/>
-      <c r="B31" s="51"/>
-      <c r="C31" s="51" t="s">
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="51"/>
-      <c r="E31" s="61">
+      <c r="D31" s="38"/>
+      <c r="E31" s="46">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="51"/>
-      <c r="B32" s="51"/>
-      <c r="C32" s="51" t="s">
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="D32" s="51"/>
+      <c r="D32" s="38"/>
       <c r="E32" s="9"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="51"/>
-      <c r="B33" s="51"/>
-      <c r="C33" s="51"/>
-      <c r="D33" s="51" t="s">
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="E33" s="62">
+      <c r="E33" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="51"/>
-      <c r="B34" s="51"/>
-      <c r="C34" s="51"/>
-      <c r="D34" s="51" t="s">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38" t="s">
         <v>33</v>
       </c>
       <c r="E34" s="7">
@@ -7276,78 +7419,78 @@
       </c>
     </row>
     <row r="35" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="51"/>
-      <c r="B35" s="51"/>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51" t="s">
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38" t="s">
         <v>32</v>
       </c>
-      <c r="E35" s="11">
+      <c r="E35" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="51"/>
-      <c r="B36" s="51" t="s">
+      <c r="A36" s="38"/>
+      <c r="B36" s="38" t="s">
         <v>31</v>
       </c>
-      <c r="C36" s="51"/>
-      <c r="D36" s="51"/>
-      <c r="E36" s="61">
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="46">
         <v>78641832.840000004</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="51"/>
-      <c r="B37" s="55" t="s">
+      <c r="A37" s="38"/>
+      <c r="B37" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="51"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="30">
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="25">
         <f>SUM(E14,E19,E21:E36)</f>
         <v>1362878011.02</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="51"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="51"/>
-      <c r="D38" s="51"/>
-      <c r="E38" s="29"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="24"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A39" s="55" t="s">
+      <c r="A39" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B39" s="55"/>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="16"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="14"/>
     </row>
     <row r="40" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="55" t="s">
+      <c r="A40" s="40" t="s">
         <v>28</v>
       </c>
-      <c r="B40" s="51"/>
-      <c r="C40" s="51"/>
-      <c r="D40" s="51"/>
-      <c r="E40" s="16"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="14"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A41" s="51"/>
-      <c r="B41" s="55" t="s">
+      <c r="A41" s="38"/>
+      <c r="B41" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
       <c r="E41" s="9"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A42" s="51"/>
-      <c r="B42" s="51"/>
-      <c r="C42" s="51"/>
-      <c r="D42" s="51" t="s">
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
+      <c r="C42" s="38"/>
+      <c r="D42" s="38" t="s">
         <v>26</v>
       </c>
       <c r="E42" s="7">
@@ -7355,10 +7498,10 @@
       </c>
     </row>
     <row r="43" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A43" s="51"/>
-      <c r="B43" s="51"/>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51" t="s">
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38" t="s">
         <v>25</v>
       </c>
       <c r="E43" s="7">
@@ -7366,10 +7509,10 @@
       </c>
     </row>
     <row r="44" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="51"/>
-      <c r="B44" s="51"/>
-      <c r="C44" s="51"/>
-      <c r="D44" s="51" t="s">
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38" t="s">
         <v>2</v>
       </c>
       <c r="E44" s="7">
@@ -7377,19 +7520,19 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="51"/>
-      <c r="B45" s="55" t="s">
+      <c r="A45" s="38"/>
+      <c r="B45" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C45" s="51"/>
-      <c r="D45" s="51"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
       <c r="E45" s="9"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="51"/>
-      <c r="B46" s="51"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="51" t="s">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="49"/>
+      <c r="D46" s="38" t="s">
         <v>26</v>
       </c>
       <c r="E46" s="7">
@@ -7397,10 +7540,10 @@
       </c>
     </row>
     <row r="47" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A47" s="51"/>
-      <c r="B47" s="51"/>
-      <c r="C47" s="51"/>
-      <c r="D47" s="51" t="s">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38" t="s">
         <v>25</v>
       </c>
       <c r="E47" s="7">
@@ -7408,10 +7551,10 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="51"/>
-      <c r="B48" s="51"/>
-      <c r="C48" s="51"/>
-      <c r="D48" s="51" t="s">
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38" t="s">
         <v>2</v>
       </c>
       <c r="E48" s="7">
@@ -7419,19 +7562,19 @@
       </c>
     </row>
     <row r="49" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A49" s="51"/>
-      <c r="B49" s="55" t="s">
+      <c r="A49" s="38"/>
+      <c r="B49" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C49" s="51"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="11"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="10"/>
     </row>
     <row r="50" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A50" s="65"/>
-      <c r="B50" s="65"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="51" t="s">
+      <c r="A50" s="50"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
+      <c r="D50" s="38" t="s">
         <v>26</v>
       </c>
       <c r="E50" s="7">
@@ -7439,10 +7582,10 @@
       </c>
     </row>
     <row r="51" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A51" s="51"/>
-      <c r="B51" s="51"/>
-      <c r="C51" s="51"/>
-      <c r="D51" s="51" t="s">
+      <c r="A51" s="38"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38" t="s">
         <v>25</v>
       </c>
       <c r="E51" s="7">
@@ -7450,10 +7593,10 @@
       </c>
     </row>
     <row r="52" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="51"/>
-      <c r="B52" s="51"/>
-      <c r="C52" s="51"/>
-      <c r="D52" s="51" t="s">
+      <c r="A52" s="38"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38" t="s">
         <v>2</v>
       </c>
       <c r="E52" s="7">
@@ -7461,19 +7604,19 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A53" s="51"/>
-      <c r="B53" s="55" t="s">
+      <c r="A53" s="38"/>
+      <c r="B53" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="11"/>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="10"/>
     </row>
     <row r="54" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A54" s="51"/>
-      <c r="B54" s="51"/>
-      <c r="C54" s="51"/>
-      <c r="D54" s="51" t="s">
+      <c r="A54" s="38"/>
+      <c r="B54" s="38"/>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38" t="s">
         <v>26</v>
       </c>
       <c r="E54" s="7">
@@ -7481,83 +7624,83 @@
       </c>
     </row>
     <row r="55" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A55" s="51"/>
-      <c r="B55" s="51"/>
-      <c r="C55" s="51"/>
-      <c r="D55" s="51" t="s">
+      <c r="A55" s="38"/>
+      <c r="B55" s="38"/>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E55" s="66">
+      <c r="E55" s="51">
         <v>22202135.41</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A56" s="51"/>
-      <c r="B56" s="51"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E56" s="67">
+      <c r="A56" s="38"/>
+      <c r="B56" s="38"/>
+      <c r="C56" s="49"/>
+      <c r="D56" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E56" s="52">
         <v>397998.77</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="51"/>
-      <c r="B57" s="55" t="s">
+      <c r="A57" s="38"/>
+      <c r="B57" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="51"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="26"/>
+      <c r="C57" s="38"/>
+      <c r="D57" s="38"/>
+      <c r="E57" s="22"/>
     </row>
     <row r="58" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="51"/>
-      <c r="B58" s="51"/>
-      <c r="C58" s="51"/>
-      <c r="D58" s="51" t="s">
+      <c r="A58" s="38"/>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E58" s="62">
+      <c r="E58" s="47">
         <v>8633255.3100000005</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A59" s="51"/>
-      <c r="B59" s="51"/>
-      <c r="C59" s="51"/>
-      <c r="D59" s="51" t="s">
+      <c r="A59" s="38"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E59" s="68">
+      <c r="E59" s="53">
         <v>24763415.829999998</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A60" s="51"/>
-      <c r="B60" s="51"/>
-      <c r="C60" s="51"/>
-      <c r="D60" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E60" s="62">
+      <c r="A60" s="38"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E60" s="47">
         <v>27516</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A61" s="51"/>
-      <c r="B61" s="55" t="s">
+      <c r="A61" s="38"/>
+      <c r="B61" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="26"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="E61" s="22"/>
     </row>
     <row r="62" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="51"/>
-      <c r="B62" s="51"/>
-      <c r="C62" s="51"/>
-      <c r="D62" s="51" t="s">
+      <c r="A62" s="38"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38" t="s">
         <v>26</v>
       </c>
       <c r="E62" s="7">
@@ -7565,10 +7708,10 @@
       </c>
     </row>
     <row r="63" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="51"/>
-      <c r="B63" s="55"/>
-      <c r="C63" s="51"/>
-      <c r="D63" s="51" t="s">
+      <c r="A63" s="38"/>
+      <c r="B63" s="40"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38" t="s">
         <v>25</v>
       </c>
       <c r="E63" s="7">
@@ -7576,10 +7719,10 @@
       </c>
     </row>
     <row r="64" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A64" s="51"/>
-      <c r="B64" s="51"/>
-      <c r="C64" s="51"/>
-      <c r="D64" s="51" t="s">
+      <c r="A64" s="38"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38" t="s">
         <v>2</v>
       </c>
       <c r="E64" s="7">
@@ -7587,19 +7730,19 @@
       </c>
     </row>
     <row r="65" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="51"/>
-      <c r="B65" s="55" t="s">
+      <c r="A65" s="38"/>
+      <c r="B65" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C65" s="51"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="11"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
+      <c r="E65" s="10"/>
     </row>
     <row r="66" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="51"/>
-      <c r="B66" s="51"/>
-      <c r="C66" s="51"/>
-      <c r="D66" s="51" t="s">
+      <c r="A66" s="38"/>
+      <c r="B66" s="38"/>
+      <c r="C66" s="38"/>
+      <c r="D66" s="38" t="s">
         <v>26</v>
       </c>
       <c r="E66" s="7">
@@ -7607,10 +7750,10 @@
       </c>
     </row>
     <row r="67" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="51"/>
-      <c r="B67" s="51"/>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51" t="s">
+      <c r="A67" s="38"/>
+      <c r="B67" s="38"/>
+      <c r="C67" s="38"/>
+      <c r="D67" s="38" t="s">
         <v>25</v>
       </c>
       <c r="E67" s="7">
@@ -7618,10 +7761,10 @@
       </c>
     </row>
     <row r="68" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="51"/>
-      <c r="B68" s="51"/>
-      <c r="C68" s="51"/>
-      <c r="D68" s="51" t="s">
+      <c r="A68" s="38"/>
+      <c r="B68" s="38"/>
+      <c r="C68" s="38"/>
+      <c r="D68" s="38" t="s">
         <v>2</v>
       </c>
       <c r="E68" s="7">
@@ -7629,101 +7772,101 @@
       </c>
     </row>
     <row r="69" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="51"/>
-      <c r="B69" s="55" t="s">
+      <c r="A69" s="38"/>
+      <c r="B69" s="40" t="s">
         <v>27</v>
       </c>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
+      <c r="C69" s="38"/>
+      <c r="D69" s="38"/>
       <c r="E69" s="9"/>
     </row>
     <row r="70" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A70" s="51"/>
-      <c r="B70" s="51"/>
-      <c r="C70" s="51"/>
-      <c r="D70" s="51" t="s">
+      <c r="A70" s="38"/>
+      <c r="B70" s="38"/>
+      <c r="C70" s="38"/>
+      <c r="D70" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="E70" s="16">
+      <c r="E70" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="51"/>
-      <c r="B71" s="51"/>
-      <c r="C71" s="51"/>
-      <c r="D71" s="51" t="s">
+      <c r="A71" s="38"/>
+      <c r="B71" s="38"/>
+      <c r="C71" s="38"/>
+      <c r="D71" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="E71" s="16">
+      <c r="E71" s="14">
         <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="51"/>
-      <c r="B72" s="51"/>
-      <c r="C72" s="51"/>
-      <c r="D72" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E72" s="25">
+      <c r="A72" s="38"/>
+      <c r="B72" s="38"/>
+      <c r="C72" s="38"/>
+      <c r="D72" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E72" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="51"/>
-      <c r="B73" s="55" t="s">
+      <c r="A73" s="38"/>
+      <c r="B73" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="C73" s="51"/>
-      <c r="D73" s="51"/>
+      <c r="C73" s="38"/>
+      <c r="D73" s="38"/>
       <c r="E73" s="9"/>
     </row>
     <row r="74" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="51"/>
-      <c r="B74" s="51"/>
-      <c r="C74" s="51" t="s">
+      <c r="A74" s="38"/>
+      <c r="B74" s="38"/>
+      <c r="C74" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D74" s="51"/>
-      <c r="E74" s="16"/>
+      <c r="D74" s="38"/>
+      <c r="E74" s="14"/>
     </row>
     <row r="75" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="51"/>
-      <c r="B75" s="51"/>
-      <c r="C75" s="51"/>
-      <c r="D75" s="51" t="s">
+      <c r="A75" s="38"/>
+      <c r="B75" s="38"/>
+      <c r="C75" s="38"/>
+      <c r="D75" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="66">
+      <c r="E75" s="51">
         <v>14688711.42</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="51"/>
-      <c r="B76" s="51"/>
-      <c r="C76" s="51"/>
-      <c r="D76" s="51" t="s">
+      <c r="A76" s="38"/>
+      <c r="B76" s="38"/>
+      <c r="C76" s="38"/>
+      <c r="D76" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="E76" s="69">
+      <c r="E76" s="54">
         <v>55406845.399999999</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A77" s="51"/>
-      <c r="B77" s="51"/>
-      <c r="C77" s="70" t="s">
+      <c r="A77" s="38"/>
+      <c r="B77" s="38"/>
+      <c r="C77" s="55" t="s">
         <v>20</v>
       </c>
-      <c r="D77" s="51"/>
-      <c r="E77" s="16"/>
+      <c r="D77" s="38"/>
+      <c r="E77" s="14"/>
     </row>
     <row r="78" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A78" s="51"/>
-      <c r="B78" s="51"/>
-      <c r="C78" s="51"/>
-      <c r="D78" s="51" t="s">
+      <c r="A78" s="38"/>
+      <c r="B78" s="38"/>
+      <c r="C78" s="38"/>
+      <c r="D78" s="38" t="s">
         <v>14</v>
       </c>
       <c r="E78" s="7">
@@ -7731,42 +7874,42 @@
       </c>
     </row>
     <row r="79" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="51"/>
-      <c r="B79" s="51"/>
-      <c r="C79" s="51"/>
-      <c r="D79" s="51" t="s">
+      <c r="A79" s="38"/>
+      <c r="B79" s="38"/>
+      <c r="C79" s="38"/>
+      <c r="D79" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E79" s="66">
+      <c r="E79" s="51">
         <v>5300224.16</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A80" s="51"/>
-      <c r="B80" s="51"/>
-      <c r="C80" s="51" t="s">
+      <c r="A80" s="38"/>
+      <c r="B80" s="38"/>
+      <c r="C80" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="D80" s="51"/>
-      <c r="E80" s="17"/>
+      <c r="D80" s="38"/>
+      <c r="E80" s="15"/>
     </row>
     <row r="81" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="51"/>
-      <c r="B81" s="51"/>
-      <c r="C81" s="51"/>
-      <c r="D81" s="70" t="s">
+      <c r="A81" s="38"/>
+      <c r="B81" s="38"/>
+      <c r="C81" s="38"/>
+      <c r="D81" s="55" t="s">
         <v>14</v>
       </c>
       <c r="E81" s="7">
         <v>42193437.590000004</v>
       </c>
-      <c r="F81" s="71"/>
+      <c r="F81" s="56"/>
     </row>
     <row r="82" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A82" s="51"/>
-      <c r="B82" s="51"/>
-      <c r="C82" s="51"/>
-      <c r="D82" s="70" t="s">
+      <c r="A82" s="38"/>
+      <c r="B82" s="38"/>
+      <c r="C82" s="38"/>
+      <c r="D82" s="55" t="s">
         <v>13</v>
       </c>
       <c r="E82" s="7">
@@ -7774,49 +7917,49 @@
       </c>
     </row>
     <row r="83" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A83" s="51"/>
-      <c r="B83" s="51"/>
-      <c r="C83" s="51" t="s">
+      <c r="A83" s="38"/>
+      <c r="B83" s="38"/>
+      <c r="C83" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D83" s="51"/>
+      <c r="D83" s="38"/>
     </row>
     <row r="84" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A84" s="51"/>
-      <c r="B84" s="51"/>
-      <c r="C84" s="51"/>
-      <c r="D84" s="51" t="s">
+      <c r="A84" s="38"/>
+      <c r="B84" s="38"/>
+      <c r="C84" s="38"/>
+      <c r="D84" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="E84" s="21">
+      <c r="E84" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="51"/>
-      <c r="B85" s="51"/>
-      <c r="C85" s="51"/>
-      <c r="D85" s="51" t="s">
+      <c r="A85" s="38"/>
+      <c r="B85" s="38"/>
+      <c r="C85" s="38"/>
+      <c r="D85" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E85" s="21">
+      <c r="E85" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="51"/>
-      <c r="B86" s="51"/>
-      <c r="C86" s="51" t="s">
+      <c r="A86" s="38"/>
+      <c r="B86" s="38"/>
+      <c r="C86" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="D86" s="51"/>
-      <c r="E86" s="16"/>
+      <c r="D86" s="38"/>
+      <c r="E86" s="14"/>
     </row>
     <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="51"/>
-      <c r="B87" s="51"/>
-      <c r="C87" s="51"/>
-      <c r="D87" s="51" t="s">
+      <c r="A87" s="38"/>
+      <c r="B87" s="38"/>
+      <c r="C87" s="38"/>
+      <c r="D87" s="38" t="s">
         <v>14</v>
       </c>
       <c r="E87" s="7">
@@ -7824,10 +7967,10 @@
       </c>
     </row>
     <row r="88" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="51"/>
-      <c r="B88" s="51"/>
-      <c r="C88" s="51"/>
-      <c r="D88" s="51" t="s">
+      <c r="A88" s="38"/>
+      <c r="B88" s="38"/>
+      <c r="C88" s="38"/>
+      <c r="D88" s="38" t="s">
         <v>13</v>
       </c>
       <c r="E88" s="7">
@@ -7835,19 +7978,19 @@
       </c>
     </row>
     <row r="89" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="51"/>
-      <c r="B89" s="51"/>
-      <c r="C89" s="51" t="s">
+      <c r="A89" s="38"/>
+      <c r="B89" s="38"/>
+      <c r="C89" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="D89" s="51"/>
-      <c r="E89" s="16"/>
+      <c r="D89" s="38"/>
+      <c r="E89" s="14"/>
     </row>
     <row r="90" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A90" s="51"/>
-      <c r="B90" s="51"/>
-      <c r="C90" s="51"/>
-      <c r="D90" s="51" t="s">
+      <c r="A90" s="38"/>
+      <c r="B90" s="38"/>
+      <c r="C90" s="38"/>
+      <c r="D90" s="38" t="s">
         <v>15</v>
       </c>
       <c r="E90" s="7">
@@ -7855,10 +7998,10 @@
       </c>
     </row>
     <row r="91" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="51"/>
-      <c r="B91" s="51"/>
-      <c r="C91" s="51"/>
-      <c r="D91" s="51" t="s">
+      <c r="A91" s="38"/>
+      <c r="B91" s="38"/>
+      <c r="C91" s="38"/>
+      <c r="D91" s="38" t="s">
         <v>14</v>
       </c>
       <c r="E91" s="7">
@@ -7866,95 +8009,95 @@
       </c>
     </row>
     <row r="92" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A92" s="51"/>
-      <c r="B92" s="51"/>
-      <c r="C92" s="51"/>
-      <c r="D92" s="51" t="s">
+      <c r="A92" s="38"/>
+      <c r="B92" s="38"/>
+      <c r="C92" s="38"/>
+      <c r="D92" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="E92" s="67">
+      <c r="E92" s="52">
         <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A93" s="55" t="s">
+      <c r="A93" s="40" t="s">
         <v>12</v>
       </c>
-      <c r="D93" s="51"/>
-      <c r="E93" s="19">
+      <c r="D93" s="38"/>
+      <c r="E93" s="17">
         <f>SUM(E41:E92)</f>
         <v>1246331960.7499998</v>
       </c>
     </row>
     <row r="94" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="55" t="s">
+      <c r="A94" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="B94" s="51"/>
-      <c r="C94" s="55"/>
-      <c r="D94" s="70"/>
-      <c r="E94" s="16"/>
+      <c r="B94" s="38"/>
+      <c r="C94" s="40"/>
+      <c r="D94" s="55"/>
+      <c r="E94" s="14"/>
     </row>
     <row r="95" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="51"/>
-      <c r="B95" s="55" t="s">
+      <c r="A95" s="38"/>
+      <c r="B95" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C95" s="51"/>
-      <c r="D95" s="51"/>
-      <c r="E95" s="17"/>
-      <c r="H95" s="73"/>
-      <c r="I95" s="56"/>
+      <c r="C95" s="38"/>
+      <c r="D95" s="38"/>
+      <c r="E95" s="15"/>
+      <c r="H95" s="58"/>
+      <c r="I95" s="41"/>
     </row>
     <row r="96" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="51"/>
-      <c r="B96" s="51"/>
-      <c r="C96" s="51"/>
-      <c r="D96" s="51" t="s">
+      <c r="A96" s="38"/>
+      <c r="B96" s="38"/>
+      <c r="C96" s="38"/>
+      <c r="D96" s="38" t="s">
         <v>2</v>
       </c>
       <c r="E96" s="7">
         <v>8655185.2599999998</v>
       </c>
-      <c r="F96" s="73"/>
-      <c r="G96" s="51"/>
-      <c r="I96" s="56"/>
+      <c r="F96" s="58"/>
+      <c r="G96" s="38"/>
+      <c r="I96" s="41"/>
     </row>
     <row r="97" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="51"/>
-      <c r="B97" s="55" t="s">
+      <c r="A97" s="38"/>
+      <c r="B97" s="40" t="s">
         <v>9</v>
       </c>
-      <c r="C97" s="51"/>
-      <c r="D97" s="51"/>
-      <c r="E97" s="16"/>
-      <c r="F97" s="73"/>
-      <c r="G97" s="51"/>
-      <c r="H97" s="73"/>
-      <c r="I97" s="56"/>
+      <c r="C97" s="38"/>
+      <c r="D97" s="38"/>
+      <c r="E97" s="14"/>
+      <c r="F97" s="58"/>
+      <c r="G97" s="38"/>
+      <c r="H97" s="58"/>
+      <c r="I97" s="41"/>
     </row>
     <row r="98" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B98" s="51"/>
-      <c r="C98" s="51"/>
-      <c r="D98" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E98" s="66">
+      <c r="B98" s="38"/>
+      <c r="C98" s="38"/>
+      <c r="D98" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" s="51">
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B99" s="55" t="s">
+      <c r="B99" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="C99" s="51"/>
-      <c r="D99" s="51"/>
+      <c r="C99" s="38"/>
+      <c r="D99" s="38"/>
       <c r="E99" s="9"/>
     </row>
     <row r="100" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B100" s="51"/>
-      <c r="C100" s="51"/>
-      <c r="D100" s="51" t="s">
+      <c r="B100" s="38"/>
+      <c r="C100" s="38"/>
+      <c r="D100" s="38" t="s">
         <v>2</v>
       </c>
       <c r="E100" s="7">
@@ -7962,52 +8105,52 @@
       </c>
     </row>
     <row r="101" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B101" s="55" t="s">
+      <c r="B101" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="C101" s="51"/>
-      <c r="D101" s="51"/>
+      <c r="C101" s="38"/>
+      <c r="D101" s="38"/>
       <c r="E101" s="9"/>
     </row>
     <row r="102" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B102" s="51"/>
-      <c r="C102" s="64"/>
-      <c r="D102" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E102" s="11">
+      <c r="B102" s="38"/>
+      <c r="C102" s="49"/>
+      <c r="D102" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E102" s="10">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B103" s="55" t="s">
+      <c r="B103" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C103" s="51"/>
-      <c r="D103" s="51"/>
+      <c r="C103" s="38"/>
+      <c r="D103" s="38"/>
       <c r="E103" s="9"/>
     </row>
     <row r="104" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B104" s="51"/>
-      <c r="C104" s="51"/>
-      <c r="D104" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="E104" s="62">
+      <c r="B104" s="38"/>
+      <c r="C104" s="38"/>
+      <c r="D104" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="E104" s="47">
         <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B105" s="55" t="s">
+      <c r="B105" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="C105" s="51"/>
-      <c r="D105" s="51"/>
+      <c r="C105" s="38"/>
+      <c r="D105" s="38"/>
     </row>
     <row r="106" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B106" s="51"/>
-      <c r="C106" s="51"/>
-      <c r="D106" s="51" t="s">
+      <c r="B106" s="38"/>
+      <c r="C106" s="38"/>
+      <c r="D106" s="38" t="s">
         <v>2</v>
       </c>
       <c r="E106" s="9">
@@ -8015,17 +8158,17 @@
       </c>
     </row>
     <row r="107" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B107" s="55" t="s">
+      <c r="B107" s="40" t="s">
         <v>4</v>
       </c>
-      <c r="C107" s="51"/>
-      <c r="D107" s="51"/>
+      <c r="C107" s="38"/>
+      <c r="D107" s="38"/>
       <c r="E107" s="9"/>
     </row>
     <row r="108" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B108" s="51"/>
-      <c r="C108" s="51"/>
-      <c r="D108" s="51" t="s">
+      <c r="B108" s="38"/>
+      <c r="C108" s="38"/>
+      <c r="D108" s="38" t="s">
         <v>2</v>
       </c>
       <c r="E108" s="7">
@@ -8033,27 +8176,27 @@
       </c>
     </row>
     <row r="109" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="55"/>
-      <c r="B109" s="55" t="s">
+      <c r="A109" s="40"/>
+      <c r="B109" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="C109" s="51"/>
-      <c r="D109" s="51"/>
+      <c r="C109" s="38"/>
+      <c r="D109" s="38"/>
       <c r="E109" s="9"/>
     </row>
     <row r="110" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B110" s="51"/>
-      <c r="C110" s="51"/>
-      <c r="D110" s="51" t="s">
+      <c r="B110" s="38"/>
+      <c r="C110" s="38"/>
+      <c r="D110" s="38" t="s">
         <v>2</v>
       </c>
       <c r="E110" s="7">
         <v>49811824.210000001</v>
       </c>
-      <c r="F110" s="74"/>
+      <c r="F110" s="59"/>
     </row>
     <row r="111" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="55" t="s">
+      <c r="A111" s="40" t="s">
         <v>1</v>
       </c>
       <c r="E111" s="4">
@@ -8062,12 +8205,12 @@
       </c>
     </row>
     <row r="112" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="75" t="s">
-        <v>0</v>
-      </c>
-      <c r="B112" s="76"/>
-      <c r="C112" s="76"/>
-      <c r="D112" s="76"/>
+      <c r="A112" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" s="61"/>
+      <c r="C112" s="61"/>
+      <c r="D112" s="61"/>
       <c r="E112" s="1">
         <f>SUM(E93,E111)</f>
         <v>1316352449.0399997</v>
